--- a/基本設計/基本設計書.xlsx
+++ b/基本設計/基本設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="459" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D383ED90-E00C-409E-9BEA-B0F86D1D8455}"/>
+  <xr:revisionPtr revIDLastSave="525" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B293EB-001D-4DCA-BF71-C17EC1D1E3BD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="774" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -823,7 +823,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -902,8 +902,14 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -914,14 +920,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -935,7 +935,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1624,16 +1623,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1650,8 +1649,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6762750" y="2419350"/>
-          <a:ext cx="3190874" cy="1981200"/>
+          <a:off x="7038975" y="2724150"/>
+          <a:ext cx="1743075" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1679,257 +1678,16 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>入力情報</a:t>
+            <a:t>account_data</a:t>
           </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>・姓（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>family_name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）  ・名（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>last_name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・カナ（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>family_name_kana / last_name_kana</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・メールアドレス（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>mail</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）  パスワード（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>password</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・性別（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>gender</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）　・住所（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>prefecture/address_1/address_2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>　・アカウント権限・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>update_time</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1944,7 +1702,7 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1959,15 +1717,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>41275</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1984,7 +1742,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4000500" y="4248150"/>
+          <a:off x="3952875" y="4314825"/>
           <a:ext cx="1384300" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -2006,22 +1764,43 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アカウント更新完了</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr algn="ctr" rtl="0">
             <a:lnSpc>
               <a:spcPts val="1200"/>
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>home</a:t>
-          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -2030,7 +1809,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>画面</a:t>
+            <a:t>表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2559,7 +2338,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>アカウント削除確認</a:t>
+            <a:t>アカウント情報表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2568,16 +2347,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2594,8 +2373,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3133725" y="762000"/>
-          <a:ext cx="3190874" cy="1552575"/>
+          <a:off x="3962400" y="1285876"/>
+          <a:ext cx="1781175" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2641,236 +2420,6 @@
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
           </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>・姓（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>family_name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）  ・名（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>last_name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・カナ（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>family_name_kana / last_name_kana</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・メールアドレス（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>mail</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）  パスワード（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>password</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・性別（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>gender</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）　・住所（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>prefecture/address_1/address_2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>　・アカウント権限</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -3397,16 +2946,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3423,7 +2972,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3486150" y="4200525"/>
+          <a:off x="4038600" y="4229100"/>
           <a:ext cx="1384300" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -3459,78 +3008,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>アカウント削除</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955A2676-30FA-469F-88B8-4874BE52C771}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5010150" y="4200525"/>
-          <a:ext cx="1384300" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>アカウント削除完了</a:t>
+            <a:t>アカウント削除確認表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3998,15 +3476,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>250825</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4023,7 +3501,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3895725" y="4191000"/>
+          <a:off x="4048125" y="4181475"/>
           <a:ext cx="1384300" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -4045,22 +3523,43 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アカウント削除完了</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr algn="ctr" rtl="0">
             <a:lnSpc>
               <a:spcPts val="1200"/>
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>home</a:t>
-          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -4069,7 +3568,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>画面</a:t>
+            <a:t>表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4079,15 +3578,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4104,8 +3603,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6705600" y="2466975"/>
-          <a:ext cx="2638425" cy="1228725"/>
+          <a:off x="6715126" y="2676525"/>
+          <a:ext cx="2247900" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -4151,16 +3650,6 @@
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
           </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>delete_flag/update_time</a:t>
-          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -5334,141 +4823,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Line 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D7761D-E561-4C08-B178-36577A5B12CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4581525" y="3644900"/>
-          <a:ext cx="0" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>231776</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532C9991-EF0F-47BA-A8AC-C711FE72A5A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3876676" y="4162425"/>
-          <a:ext cx="1384300" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>TOP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ページに移行</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -6391,202 +5745,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B74CA67-D5F9-4B40-B988-5B4B5A365754}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4876800" y="3886200"/>
-          <a:ext cx="0" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17614505-F9B6-4CFF-A89D-D18F35448236}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3486150" y="4476750"/>
-          <a:ext cx="1384300" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>アカウント一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7BB229-0C7D-466B-912A-C90CFE55B97D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5057775" y="4467225"/>
-          <a:ext cx="1384300" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>アカウント登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7269,70 +6427,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6153" name="Line 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9FDF85-07DF-4817-94C4-AE687A951223}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5048250" y="4930775"/>
-          <a:ext cx="0" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>98426</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7349,8 +6453,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4371976" y="5372100"/>
-          <a:ext cx="1384300" cy="600075"/>
+          <a:off x="4552950" y="5200650"/>
+          <a:ext cx="1638299" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -7385,10 +6489,83 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>登録確認画面（入力内容の表示）</a:t>
+            <a:t>登録画面（入力内容の表示）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>未入力・規定文字以外エラー表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EBE5A1-542C-4E62-A593-2D1BECCD43ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="5219700" y="4857749"/>
+          <a:ext cx="0" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -7745,36 +6922,13 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>（前に戻る</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>登録する）</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7890,16 +7044,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>50801</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>298451</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7916,7 +7070,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3381376" y="4162425"/>
+          <a:off x="3943351" y="4171950"/>
           <a:ext cx="1384300" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -7952,69 +7106,17 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>登録画面（入力内容の保持）</a:t>
+            <a:t>登録確認用</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B21F94A3-4B7F-4827-9F47-25A9A84AFA48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4962525" y="4133850"/>
-          <a:ext cx="1384300" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+          </a:br>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -8023,7 +7125,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>登録完了画面</a:t>
+            <a:t>入力内容表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8592,32 +7694,28 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr rtl="0"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>home</a:t>
+            <a:t>アカウント登録完了</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>画面</a:t>
+            <a:t>表示</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8625,16 +7723,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>219073</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8651,8 +7749,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6743700" y="2428875"/>
-          <a:ext cx="3190874" cy="1552575"/>
+          <a:off x="7048499" y="2571750"/>
+          <a:ext cx="2285999" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -8680,17 +7778,17 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>登録画面で入力した内容</a:t>
+            <a:t>account_data</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -8698,237 +7796,7 @@
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
           </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>・姓（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>family_name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）  ・名（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>last_name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・カナ（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>family_name_kana / last_name_kana</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・メールアドレス（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>mail</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）  ・パスワード（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>password</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・性別（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>gender</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）　・住所（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>prefecture/address_1/address_2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>　・アカウント権限</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -9278,6 +8146,25 @@
             </a:rPr>
             <a:t>アカウント検索</a:t>
           </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>条件入力</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -9400,16 +8287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9426,7 +8313,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3552825" y="4210050"/>
+          <a:off x="4095750" y="4248150"/>
           <a:ext cx="1384300" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -9462,7 +8349,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>アカウント更新画面</a:t>
+            <a:t>アカウント一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9471,16 +8358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9497,8 +8384,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3133725" y="561975"/>
-          <a:ext cx="3190874" cy="1866899"/>
+          <a:off x="3676650" y="1352550"/>
+          <a:ext cx="2343150" cy="885824"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -9526,7 +8413,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9536,7 +8423,7 @@
             <a:t>account_data</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9544,217 +8431,7 @@
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
           </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>・姓（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>family_name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）  ・名（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>last_name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・カナ（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>family_name_kana / last_name_kana</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・メールアドレス（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>mail</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・性別（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>gender</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）　・住所（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>prefecture/address_1/address_2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>　・アカウント権限</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -9817,77 +8494,6 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA857BF-6BFD-4517-9C42-E8F42E5E4131}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5076825" y="4200525"/>
-          <a:ext cx="1384300" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>アカウント削除画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -10512,16 +9118,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10538,7 +9144,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4495800" y="4749800"/>
+          <a:off x="4733925" y="4473575"/>
           <a:ext cx="0" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10567,15 +9173,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10592,7 +9198,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3790950" y="5257800"/>
+          <a:off x="4029075" y="4962525"/>
           <a:ext cx="1384300" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -10628,7 +9234,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>アカウント更新確認</a:t>
+            <a:t>未入力・規定文字入力以外等エラー表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10637,16 +9243,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10663,8 +9269,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3133725" y="762000"/>
-          <a:ext cx="3190874" cy="1552575"/>
+          <a:off x="4229100" y="1285875"/>
+          <a:ext cx="1352550" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -10692,7 +9298,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10702,7 +9308,7 @@
             <a:t>account_data</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10710,237 +9316,7 @@
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
           </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>・姓（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>family_name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）  ・名（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>last_name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・カナ（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>family_name_kana / last_name_kana</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・メールアドレス（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>mail</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）  パスワード（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>password</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>  ・性別（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>gender</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）　・住所（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>prefecture/address_1/address_2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>　・アカウント権限</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -11466,23 +9842,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 11">
+        <xdr:cNvPr id="11" name="AutoShape 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6BA44D-4AFC-4634-AD64-05B5DCBE50AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D271A090-2720-430D-898E-770CF911E1E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11492,7 +9868,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3305175" y="4210050"/>
+          <a:off x="4095750" y="4257675"/>
           <a:ext cx="1384300" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -11528,79 +9904,15 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>アカウント更新</a:t>
+            <a:t>アカウント更新確認用入力内容</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D271A090-2720-430D-898E-770CF911E1E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5029200" y="4210050"/>
-          <a:ext cx="1384300" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>アカウント更新完了</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11912,7 +10224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
@@ -13648,127 +11960,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="59" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="59" t="s">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="61"/>
+      <c r="AG2" s="63"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="59" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="61"/>
+      <c r="AG3" s="63"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -15289,15 +13601,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -15328,127 +13640,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="59" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="59" t="s">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="61"/>
+      <c r="AG2" s="63"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="59" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="61"/>
+      <c r="AG3" s="63"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -16967,15 +15279,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -17006,127 +15318,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="59" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="59" t="s">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="61"/>
+      <c r="AG2" s="63"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="59" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="61"/>
+      <c r="AG3" s="63"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -18643,15 +16955,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -18668,7 +16980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C61012-7234-46A2-A2A1-ECDF70424A7D}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -18682,127 +16994,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="59" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="59" t="s">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="61"/>
+      <c r="AG2" s="63"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="59" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="61"/>
+      <c r="AG3" s="63"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -20321,15 +18633,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -20440,39 +18752,39 @@
       <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
         <v>27</v>
       </c>
@@ -20782,39 +19094,39 @@
       <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
         <v>27</v>
       </c>
@@ -21124,39 +19436,39 @@
       <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
         <v>27</v>
       </c>
@@ -21347,15 +19659,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -21466,39 +19778,39 @@
       <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
         <v>27</v>
       </c>
@@ -21689,15 +20001,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -21808,39 +20120,39 @@
       <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
         <v>27</v>
       </c>
@@ -22031,15 +20343,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -22150,39 +20462,39 @@
       <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
         <v>27</v>
       </c>
@@ -22373,15 +20685,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -22412,127 +20724,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="59" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="59" t="s">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="61"/>
+      <c r="AG2" s="63"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="59" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="61"/>
+      <c r="AG3" s="63"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -24168,39 +22480,39 @@
       <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
         <v>27</v>
       </c>
@@ -24391,15 +22703,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -24510,39 +22822,39 @@
       <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
         <v>27</v>
       </c>
@@ -24733,15 +23045,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -24852,39 +23164,39 @@
       <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
         <v>27</v>
       </c>
@@ -25075,15 +23387,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -25194,39 +23506,39 @@
       <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
         <v>27</v>
       </c>
@@ -25417,15 +23729,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -25536,39 +23848,39 @@
       <c r="AG2" s="67"/>
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
         <v>27</v>
       </c>
@@ -25759,15 +24071,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -25798,127 +24110,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="59" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="59" t="s">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="61"/>
+      <c r="AG2" s="63"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="59" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="61"/>
+      <c r="AG3" s="63"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -27295,7 +25607,7 @@
       <c r="A39" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="13"/>
@@ -27463,7 +25775,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -27476,127 +25788,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="59" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="59" t="s">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="61"/>
+      <c r="AG2" s="63"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="59" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="61"/>
+      <c r="AG3" s="63"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -29156,127 +27468,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="59" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="59" t="s">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="61"/>
+      <c r="AG2" s="63"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="59" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="61"/>
+      <c r="AG3" s="63"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -30838,127 +29150,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="59" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="59" t="s">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="61"/>
+      <c r="AG2" s="63"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="59" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="61"/>
+      <c r="AG3" s="63"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -32477,15 +30789,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -32516,127 +30828,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="59" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="59" t="s">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="61"/>
+      <c r="AG2" s="63"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="59" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="61"/>
+      <c r="AG3" s="63"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -34155,15 +32467,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -34194,127 +32506,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="59" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="59" t="s">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="61"/>
+      <c r="AG2" s="63"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="59" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="61"/>
+      <c r="AG3" s="63"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -35833,15 +34145,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -35872,127 +34184,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="59" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="59" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="59" t="s">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="61"/>
+      <c r="AG2" s="63"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="59" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="61"/>
+      <c r="AG3" s="63"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -37513,15 +35825,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/基本設計/基本設計書.xlsx
+++ b/基本設計/基本設計書.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="525" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B293EB-001D-4DCA-BF71-C17EC1D1E3BD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2175" windowWidth="11715" windowHeight="14025" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -10225,7 +10225,7 @@
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="F9" sqref="F8:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>

--- a/基本設計/基本設計書.xlsx
+++ b/基本設計/基本設計書.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="525" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B293EB-001D-4DCA-BF71-C17EC1D1E3BD}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E38324FA-4C7D-4E04-A231-D9B9A317DB66}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2175" windowWidth="11715" windowHeight="14025" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
     <sheet name="IO関連図（ログイン画面）" sheetId="27" r:id="rId2"/>
-    <sheet name="IO関連図（TOPページ）" sheetId="28" r:id="rId3"/>
-    <sheet name="IO関連図（登録画面）" sheetId="13" r:id="rId4"/>
-    <sheet name="IO関連図（登録確認画面）" sheetId="29" r:id="rId5"/>
-    <sheet name="IO関連図（登録完了画面）" sheetId="33" r:id="rId6"/>
-    <sheet name="IO関連図（アカウント一覧画面）" sheetId="34" r:id="rId7"/>
-    <sheet name="IO関連図（アカウント更新画面）" sheetId="36" r:id="rId8"/>
-    <sheet name="IO関連図（アカウント更新確認画面）" sheetId="37" r:id="rId9"/>
-    <sheet name="IO関連図（アカウント更新完了画面）" sheetId="38" r:id="rId10"/>
-    <sheet name="IO関連図（アカウント削除画面）" sheetId="42" r:id="rId11"/>
-    <sheet name="IO関連図（アカウント削除確認画面）" sheetId="43" r:id="rId12"/>
-    <sheet name="IO関連図（アカウント削除完了画面）" sheetId="44" r:id="rId13"/>
-    <sheet name="画面レイアウト（ログイン画面）" sheetId="15" r:id="rId14"/>
+    <sheet name="IO関連図（登録画面）" sheetId="13" r:id="rId3"/>
+    <sheet name="IO関連図（登録確認画面）" sheetId="29" r:id="rId4"/>
+    <sheet name="IO関連図（登録完了画面）" sheetId="33" r:id="rId5"/>
+    <sheet name="IO関連図（アカウント一覧画面）" sheetId="34" r:id="rId6"/>
+    <sheet name="IO関連図（アカウント更新画面）" sheetId="36" r:id="rId7"/>
+    <sheet name="IO関連図（アカウント更新確認画面）" sheetId="37" r:id="rId8"/>
+    <sheet name="IO関連図（アカウント更新完了画面）" sheetId="38" r:id="rId9"/>
+    <sheet name="IO関連図（アカウント削除画面）" sheetId="42" r:id="rId10"/>
+    <sheet name="IO関連図（アカウント削除確認画面）" sheetId="43" r:id="rId11"/>
+    <sheet name="IO関連図（アカウント削除完了画面）" sheetId="44" r:id="rId12"/>
+    <sheet name="画面レイアウト（ログイン画面）" sheetId="15" r:id="rId13"/>
+    <sheet name="画面レイアウト（ホーム画面）" sheetId="48" r:id="rId14"/>
     <sheet name="画面レイアウト（登録画面）" sheetId="30" r:id="rId15"/>
     <sheet name="画面レイアウト（登録確認画面）" sheetId="31" r:id="rId16"/>
     <sheet name="画面レイアウト（登録完了画面）" sheetId="32" r:id="rId17"/>
@@ -39,33 +39,32 @@
     <sheet name="画面レイアウト（削除完了画面）" sheetId="47" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'IO関連図（TOPページ）'!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'IO関連図（アカウント一覧画面）'!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'IO関連図（アカウント更新画面）'!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'IO関連図（アカウント更新確認画面）'!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'IO関連図（アカウント更新完了画面）'!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'IO関連図（アカウント削除画面）'!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'IO関連図（アカウント削除確認画面）'!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'IO関連図（アカウント削除完了画面）'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'IO関連図（アカウント一覧画面）'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'IO関連図（アカウント更新画面）'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'IO関連図（アカウント更新確認画面）'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'IO関連図（アカウント更新完了画面）'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'IO関連図（アカウント削除画面）'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'IO関連図（アカウント削除確認画面）'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'IO関連図（アカウント削除完了画面）'!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'IO関連図（ログイン画面）'!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'IO関連図（登録画面）'!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'IO関連図（登録確認画面）'!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'IO関連図（登録完了画面）'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'IO関連図（登録画面）'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'IO関連図（登録確認画面）'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'IO関連図（登録完了画面）'!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$43</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'IO関連図（TOPページ）'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'IO関連図（アカウント一覧画面）'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'IO関連図（アカウント更新画面）'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">'IO関連図（アカウント更新確認画面）'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">'IO関連図（アカウント更新完了画面）'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="10">'IO関連図（アカウント削除画面）'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="11">'IO関連図（アカウント削除確認画面）'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="12">'IO関連図（アカウント削除完了画面）'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'IO関連図（アカウント一覧画面）'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'IO関連図（アカウント更新画面）'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'IO関連図（アカウント更新確認画面）'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'IO関連図（アカウント更新完了画面）'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">'IO関連図（アカウント削除画面）'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">'IO関連図（アカウント削除確認画面）'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="11">'IO関連図（アカウント削除完了画面）'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'IO関連図（ログイン画面）'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'IO関連図（登録画面）'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'IO関連図（登録確認画面）'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'IO関連図（登録完了画面）'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'IO関連図（登録画面）'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'IO関連図（登録確認画面）'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'IO関連図（登録完了画面）'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="17">'画面レイアウト（アカウント検索・一覧）'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="13">'画面レイアウト（ログイン画面）'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="13">'画面レイアウト（ホーム画面）'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">'画面レイアウト（ログイン画面）'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="18">'画面レイアウト（更新画面）'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="19">'画面レイアウト（更新確認画面）'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="20">'画面レイアウト（更新完了画面）'!$1:$3</definedName>
@@ -89,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="49">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -298,20 +297,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>home</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>管理者</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -349,29 +334,6 @@
   </si>
   <si>
     <t>regist_complete</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>権限によりTOP機能変わる（一般：閲覧のみ、管理者：「アカウント一覧」、
-「アカウント登録」表示あり</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>カンリシャ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1132,713 +1094,6 @@
         <xdr:cNvPr id="2" name="computr1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089D5EFC-EEEA-4E5E-A32F-08DE44EC7F7B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noEditPoints="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1762125" y="2752725"/>
-          <a:ext cx="784225" cy="774700"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="T0" fmla="*/ 19535 w 21600"/>
-            <a:gd name="T1" fmla="*/ 0 h 21600"/>
-            <a:gd name="T2" fmla="*/ 10800 w 21600"/>
-            <a:gd name="T3" fmla="*/ 0 h 21600"/>
-            <a:gd name="T4" fmla="*/ 2065 w 21600"/>
-            <a:gd name="T5" fmla="*/ 0 h 21600"/>
-            <a:gd name="T6" fmla="*/ 0 w 21600"/>
-            <a:gd name="T7" fmla="*/ 15388 h 21600"/>
-            <a:gd name="T8" fmla="*/ 0 w 21600"/>
-            <a:gd name="T9" fmla="*/ 21600 h 21600"/>
-            <a:gd name="T10" fmla="*/ 10800 w 21600"/>
-            <a:gd name="T11" fmla="*/ 21600 h 21600"/>
-            <a:gd name="T12" fmla="*/ 21600 w 21600"/>
-            <a:gd name="T13" fmla="*/ 21600 h 21600"/>
-            <a:gd name="T14" fmla="*/ 21600 w 21600"/>
-            <a:gd name="T15" fmla="*/ 15388 h 21600"/>
-            <a:gd name="T16" fmla="*/ 19535 w 21600"/>
-            <a:gd name="T17" fmla="*/ 13553 h 21600"/>
-            <a:gd name="T18" fmla="*/ 2065 w 21600"/>
-            <a:gd name="T19" fmla="*/ 13553 h 21600"/>
-            <a:gd name="T20" fmla="*/ 2065 w 21600"/>
-            <a:gd name="T21" fmla="*/ 6776 h 21600"/>
-            <a:gd name="T22" fmla="*/ 19535 w 21600"/>
-            <a:gd name="T23" fmla="*/ 6776 h 21600"/>
-            <a:gd name="T24" fmla="*/ 0 w 21600"/>
-            <a:gd name="T25" fmla="*/ 18494 h 21600"/>
-            <a:gd name="T26" fmla="*/ 21600 w 21600"/>
-            <a:gd name="T27" fmla="*/ 18494 h 21600"/>
-            <a:gd name="T28" fmla="*/ 4923 w 21600"/>
-            <a:gd name="T29" fmla="*/ 2541 h 21600"/>
-            <a:gd name="T30" fmla="*/ 16756 w 21600"/>
-            <a:gd name="T31" fmla="*/ 11153 h 21600"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="T0" y="T1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T2" y="T3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T4" y="T5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T6" y="T7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T8" y="T9"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T10" y="T11"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T12" y="T13"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T14" y="T15"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T16" y="T17"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T18" y="T19"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T20" y="T21"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T22" y="T23"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T24" y="T25"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T26" y="T27"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="T28" t="T29" r="T30" b="T31"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="16994" y="15388"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="16994" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="19535" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="19535" y="10729"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="19535" y="6776"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="19535" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2065" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2065" y="6776"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2065" y="10729"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2065" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4606" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4606" y="15388"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="15388"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="21600" y="15388"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="15388"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-            <a:path w="21600" h="21600" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="4606" y="15388"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="4606" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="15388"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4606" y="15388"/>
-              </a:lnTo>
-            </a:path>
-            <a:path w="21600" h="21600" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="4606" y="11294"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="4606" y="2259"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="2259"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="11294"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4606" y="11294"/>
-              </a:lnTo>
-              <a:moveTo>
-                <a:pt x="13976" y="17082"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="13976" y="16376"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="20171" y="16376"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="20171" y="17082"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="13976" y="17082"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFCC"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="107763" dir="13500000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9820AC6-FBE9-4F47-9D25-2435EBFCD879}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3654425" y="2797175"/>
-          <a:ext cx="2187575" cy="692150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>アカウント更新完了</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF50BF1F-8029-4931-A687-B0FD4395CE56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="2628900" y="3121025"/>
-          <a:ext cx="774700" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FA98C6-4409-40D9-B387-B1349BB8D925}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4762500" y="3692525"/>
-          <a:ext cx="0" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{005DB20B-AB68-471C-8ED8-9CF7599EF329}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5962649" y="3162300"/>
-          <a:ext cx="657225" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0D2404-3E17-41CC-8C5C-EDAF671502A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7038975" y="2724150"/>
-          <a:ext cx="1743075" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>account_data</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E8439C-DB51-41E0-865A-0FBD0612D9D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3952875" y="4314825"/>
-          <a:ext cx="1384300" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>アカウント更新完了</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="computr1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB7F7EE-CDB2-470F-9077-557BCE5022DD}"/>
             </a:ext>
           </a:extLst>
@@ -2489,7 +1744,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2947,22 +2202,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 11">
+        <xdr:cNvPr id="9" name="AutoShape 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2309F2EA-E312-4843-A1F2-C7D711B62F61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB260A3-683E-4A9A-8695-39C8FF58C018}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2972,7 +2227,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4038600" y="4229100"/>
+          <a:off x="3962400" y="4219575"/>
           <a:ext cx="1384300" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -3008,7 +2263,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>アカウント削除確認表示</a:t>
+            <a:t>削除エラー表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3018,7 +2273,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3421,162 +2676,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EACE44-4316-4220-8F47-642FCADD5BB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4762500" y="3692525"/>
-          <a:ext cx="0" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142830A4-D90E-4AAB-AB2D-048EBA1F3811}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4048125" y="4181475"/>
-          <a:ext cx="1384300" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>アカウント削除完了</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -3719,7 +2818,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3764,6 +2863,62 @@
         <a:xfrm>
           <a:off x="2019300" y="552450"/>
           <a:ext cx="6467475" cy="6600826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00ED79B6-9AB0-7039-79EF-D826BCCE0F7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="12208" r="13695" b="10768"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="533400"/>
+          <a:ext cx="7210425" cy="7572375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5068,6 +4223,131 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Line 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E067176C-A1EB-4A12-A98D-45816E1F7567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4752975" y="3733800"/>
+          <a:ext cx="9525" cy="400049"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F10730F-2537-455B-A3DB-5FC88D292603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3752850" y="4324350"/>
+          <a:ext cx="1638299" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ログインエラー表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5352,403 +4632,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="computr1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5998D4-E315-426F-9D86-18B9439BD4F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noEditPoints="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1104900" y="3067050"/>
-          <a:ext cx="784225" cy="774700"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="T0" fmla="*/ 19535 w 21600"/>
-            <a:gd name="T1" fmla="*/ 0 h 21600"/>
-            <a:gd name="T2" fmla="*/ 10800 w 21600"/>
-            <a:gd name="T3" fmla="*/ 0 h 21600"/>
-            <a:gd name="T4" fmla="*/ 2065 w 21600"/>
-            <a:gd name="T5" fmla="*/ 0 h 21600"/>
-            <a:gd name="T6" fmla="*/ 0 w 21600"/>
-            <a:gd name="T7" fmla="*/ 15388 h 21600"/>
-            <a:gd name="T8" fmla="*/ 0 w 21600"/>
-            <a:gd name="T9" fmla="*/ 21600 h 21600"/>
-            <a:gd name="T10" fmla="*/ 10800 w 21600"/>
-            <a:gd name="T11" fmla="*/ 21600 h 21600"/>
-            <a:gd name="T12" fmla="*/ 21600 w 21600"/>
-            <a:gd name="T13" fmla="*/ 21600 h 21600"/>
-            <a:gd name="T14" fmla="*/ 21600 w 21600"/>
-            <a:gd name="T15" fmla="*/ 15388 h 21600"/>
-            <a:gd name="T16" fmla="*/ 19535 w 21600"/>
-            <a:gd name="T17" fmla="*/ 13553 h 21600"/>
-            <a:gd name="T18" fmla="*/ 2065 w 21600"/>
-            <a:gd name="T19" fmla="*/ 13553 h 21600"/>
-            <a:gd name="T20" fmla="*/ 2065 w 21600"/>
-            <a:gd name="T21" fmla="*/ 6776 h 21600"/>
-            <a:gd name="T22" fmla="*/ 19535 w 21600"/>
-            <a:gd name="T23" fmla="*/ 6776 h 21600"/>
-            <a:gd name="T24" fmla="*/ 0 w 21600"/>
-            <a:gd name="T25" fmla="*/ 18494 h 21600"/>
-            <a:gd name="T26" fmla="*/ 21600 w 21600"/>
-            <a:gd name="T27" fmla="*/ 18494 h 21600"/>
-            <a:gd name="T28" fmla="*/ 4923 w 21600"/>
-            <a:gd name="T29" fmla="*/ 2541 h 21600"/>
-            <a:gd name="T30" fmla="*/ 16756 w 21600"/>
-            <a:gd name="T31" fmla="*/ 11153 h 21600"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="T0" y="T1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T2" y="T3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T4" y="T5"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T6" y="T7"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T8" y="T9"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T10" y="T11"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T12" y="T13"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T14" y="T15"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T16" y="T17"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T18" y="T19"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T20" y="T21"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T22" y="T23"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T24" y="T25"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="T26" y="T27"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="T28" t="T29" r="T30" b="T31"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="16994" y="15388"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="16994" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="19535" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="19535" y="10729"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="19535" y="6776"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="19535" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2065" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2065" y="6776"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2065" y="10729"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2065" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4606" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4606" y="15388"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="15388"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="21600" y="15388"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="15388"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-            <a:path w="21600" h="21600" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="4606" y="15388"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="4606" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="13553"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="15388"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4606" y="15388"/>
-              </a:lnTo>
-            </a:path>
-            <a:path w="21600" h="21600" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="4606" y="11294"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="4606" y="2259"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="2259"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="16994" y="11294"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="4606" y="11294"/>
-              </a:lnTo>
-              <a:moveTo>
-                <a:pt x="13976" y="17082"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="13976" y="16376"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="20171" y="16376"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="20171" y="17082"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="13976" y="17082"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFCC"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="107763" dir="13500000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>117475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CED36B-6001-4D06-8610-4BDE1D87D554}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="2171700" y="3390900"/>
-          <a:ext cx="774700" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DAEABC2-A19E-4D2F-9DF8-A89B11F87949}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3248025" y="3124200"/>
-          <a:ext cx="3308350" cy="692150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ナビゲーションバーよりクリック</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6489,25 +5372,6 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>登録画面（入力内容の表示）</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
             <a:t>未入力・規定文字以外エラー表示</a:t>
           </a:r>
         </a:p>
@@ -6572,7 +5436,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7106,26 +5970,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>登録確認用</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>入力内容表示</a:t>
+            <a:t>登録エラー表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7135,7 +5980,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7538,60 +6383,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360B6EBD-1101-42A1-8C38-7444212A29C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4581525" y="3644900"/>
-          <a:ext cx="0" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -7641,83 +6432,6 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F00DEE9-A7A9-4C39-8DCA-C2D69BC57B9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3914775" y="4210050"/>
-          <a:ext cx="1384300" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>アカウント登録完了</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>表示</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -7811,7 +6525,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8500,7 +7214,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9385,7 +8099,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9904,9 +8618,560 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>アカウント更新確認用入力内容</a:t>
+            <a:t>更新エラー表示</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="computr1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089D5EFC-EEEA-4E5E-A32F-08DE44EC7F7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noEditPoints="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1762125" y="2752725"/>
+          <a:ext cx="784225" cy="774700"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 19535 w 21600"/>
+            <a:gd name="T1" fmla="*/ 0 h 21600"/>
+            <a:gd name="T2" fmla="*/ 10800 w 21600"/>
+            <a:gd name="T3" fmla="*/ 0 h 21600"/>
+            <a:gd name="T4" fmla="*/ 2065 w 21600"/>
+            <a:gd name="T5" fmla="*/ 0 h 21600"/>
+            <a:gd name="T6" fmla="*/ 0 w 21600"/>
+            <a:gd name="T7" fmla="*/ 15388 h 21600"/>
+            <a:gd name="T8" fmla="*/ 0 w 21600"/>
+            <a:gd name="T9" fmla="*/ 21600 h 21600"/>
+            <a:gd name="T10" fmla="*/ 10800 w 21600"/>
+            <a:gd name="T11" fmla="*/ 21600 h 21600"/>
+            <a:gd name="T12" fmla="*/ 21600 w 21600"/>
+            <a:gd name="T13" fmla="*/ 21600 h 21600"/>
+            <a:gd name="T14" fmla="*/ 21600 w 21600"/>
+            <a:gd name="T15" fmla="*/ 15388 h 21600"/>
+            <a:gd name="T16" fmla="*/ 19535 w 21600"/>
+            <a:gd name="T17" fmla="*/ 13553 h 21600"/>
+            <a:gd name="T18" fmla="*/ 2065 w 21600"/>
+            <a:gd name="T19" fmla="*/ 13553 h 21600"/>
+            <a:gd name="T20" fmla="*/ 2065 w 21600"/>
+            <a:gd name="T21" fmla="*/ 6776 h 21600"/>
+            <a:gd name="T22" fmla="*/ 19535 w 21600"/>
+            <a:gd name="T23" fmla="*/ 6776 h 21600"/>
+            <a:gd name="T24" fmla="*/ 0 w 21600"/>
+            <a:gd name="T25" fmla="*/ 18494 h 21600"/>
+            <a:gd name="T26" fmla="*/ 21600 w 21600"/>
+            <a:gd name="T27" fmla="*/ 18494 h 21600"/>
+            <a:gd name="T28" fmla="*/ 4923 w 21600"/>
+            <a:gd name="T29" fmla="*/ 2541 h 21600"/>
+            <a:gd name="T30" fmla="*/ 16756 w 21600"/>
+            <a:gd name="T31" fmla="*/ 11153 h 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T6" y="T7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T8" y="T9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T10" y="T11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T12" y="T13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T14" y="T15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T16" y="T17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T18" y="T19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T20" y="T21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T22" y="T23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T24" y="T25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T26" y="T27"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T28" t="T29" r="T30" b="T31"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="16994" y="15388"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="16994" y="13553"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="19535" y="13553"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="19535" y="10729"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="19535" y="6776"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="19535" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2065" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2065" y="6776"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2065" y="10729"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2065" y="13553"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4606" y="13553"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4606" y="15388"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="15388"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10800" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="15388"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="16994" y="15388"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+            <a:path w="21600" h="21600" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4606" y="15388"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="4606" y="13553"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="16994" y="13553"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="16994" y="15388"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4606" y="15388"/>
+              </a:lnTo>
+            </a:path>
+            <a:path w="21600" h="21600" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="4606" y="11294"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="4606" y="2259"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="16994" y="2259"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="16994" y="11294"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4606" y="11294"/>
+              </a:lnTo>
+              <a:moveTo>
+                <a:pt x="13976" y="17082"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="13976" y="16376"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="20171" y="16376"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="20171" y="17082"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="13976" y="17082"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="107763" dir="13500000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9820AC6-FBE9-4F47-9D25-2435EBFCD879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3654425" y="2797175"/>
+          <a:ext cx="2187575" cy="692150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>アカウント更新完了</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF50BF1F-8029-4931-A687-B0FD4395CE56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2628900" y="3121025"/>
+          <a:ext cx="774700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Line 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{005DB20B-AB68-471C-8ED8-9CF7599EF329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5962649" y="3162300"/>
+          <a:ext cx="657225" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0D2404-3E17-41CC-8C5C-EDAF671502A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7038975" y="2724150"/>
+          <a:ext cx="1743075" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>account_data</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -11943,11 +11208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEB793-EA0C-47FA-80E3-5B36170261EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA6848F-B23D-4882-85D3-74F1A43A8E7E}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -12074,7 +11339,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -13456,7 +12721,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -13492,7 +12757,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -13528,9 +12793,7 @@
       <c r="AG40" s="18"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="A41" s="16"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -13623,11 +12886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA6848F-B23D-4882-85D3-74F1A43A8E7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AFD066-4E98-429B-A03A-B3CDD99D8B56}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -13729,7 +12992,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -13754,7 +13017,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -15135,9 +14398,7 @@
       <c r="A39" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -15172,7 +14433,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -15301,11 +14562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AFD066-4E98-429B-A03A-B3CDD99D8B56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C61012-7234-46A2-A2A1-ECDF70424A7D}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -15407,7 +14668,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -15432,7 +14693,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -16813,7 +16074,9 @@
       <c r="A39" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -16848,7 +16111,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -16977,11 +16240,2405 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C61012-7234-46A2-A2A1-ECDF70424A7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:FU4"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.125" style="36" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="35" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="36" customWidth="1"/>
+    <col min="34" max="37" width="4" style="36" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+    </row>
+    <row r="2" spans="1:177" ht="12.95" customHeight="1">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="67"/>
+    </row>
+    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
+      <c r="BU3" s="14"/>
+      <c r="BV3" s="14"/>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="14"/>
+      <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
+      <c r="CA3" s="14"/>
+      <c r="CB3" s="14"/>
+      <c r="CC3" s="14"/>
+      <c r="CD3" s="14"/>
+      <c r="CE3" s="14"/>
+      <c r="CF3" s="14"/>
+      <c r="CG3" s="14"/>
+      <c r="CH3" s="14"/>
+      <c r="CI3" s="14"/>
+      <c r="CJ3" s="14"/>
+      <c r="CK3" s="14"/>
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="14"/>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
+      <c r="CS3" s="14"/>
+      <c r="CT3" s="14"/>
+      <c r="CU3" s="14"/>
+      <c r="CV3" s="14"/>
+      <c r="CW3" s="14"/>
+      <c r="CX3" s="14"/>
+      <c r="CY3" s="14"/>
+      <c r="CZ3" s="14"/>
+      <c r="DA3" s="14"/>
+      <c r="DB3" s="14"/>
+      <c r="DC3" s="14"/>
+      <c r="DD3" s="14"/>
+      <c r="DE3" s="14"/>
+      <c r="DF3" s="14"/>
+      <c r="DG3" s="14"/>
+      <c r="DH3" s="14"/>
+      <c r="DI3" s="14"/>
+      <c r="DJ3" s="14"/>
+      <c r="DK3" s="14"/>
+      <c r="DL3" s="14"/>
+      <c r="DM3" s="14"/>
+      <c r="DN3" s="14"/>
+      <c r="DO3" s="14"/>
+      <c r="DP3" s="14"/>
+      <c r="DQ3" s="14"/>
+      <c r="DR3" s="14"/>
+      <c r="DS3" s="14"/>
+      <c r="DT3" s="14"/>
+      <c r="DU3" s="14"/>
+      <c r="DV3" s="14"/>
+      <c r="DW3" s="14"/>
+      <c r="DX3" s="14"/>
+      <c r="DY3" s="14"/>
+      <c r="DZ3" s="14"/>
+      <c r="EA3" s="14"/>
+      <c r="EB3" s="14"/>
+      <c r="EC3" s="14"/>
+      <c r="ED3" s="14"/>
+      <c r="EE3" s="14"/>
+      <c r="EF3" s="14"/>
+      <c r="EG3" s="14"/>
+      <c r="EH3" s="14"/>
+      <c r="EI3" s="14"/>
+      <c r="EJ3" s="14"/>
+      <c r="EK3" s="14"/>
+      <c r="EL3" s="14"/>
+      <c r="EM3" s="14"/>
+      <c r="EN3" s="14"/>
+      <c r="EO3" s="14"/>
+      <c r="EP3" s="14"/>
+      <c r="EQ3" s="14"/>
+      <c r="ER3" s="14"/>
+      <c r="ES3" s="14"/>
+      <c r="ET3" s="14"/>
+      <c r="EU3" s="14"/>
+      <c r="EV3" s="14"/>
+      <c r="EW3" s="14"/>
+      <c r="EX3" s="14"/>
+      <c r="EY3" s="14"/>
+      <c r="EZ3" s="14"/>
+      <c r="FA3" s="14"/>
+      <c r="FB3" s="14"/>
+      <c r="FC3" s="14"/>
+      <c r="FD3" s="14"/>
+      <c r="FE3" s="14"/>
+      <c r="FF3" s="14"/>
+      <c r="FG3" s="14"/>
+      <c r="FH3" s="14"/>
+      <c r="FI3" s="14"/>
+      <c r="FJ3" s="14"/>
+      <c r="FK3" s="14"/>
+      <c r="FL3" s="14"/>
+      <c r="FM3" s="14"/>
+      <c r="FN3" s="14"/>
+      <c r="FO3" s="14"/>
+      <c r="FP3" s="14"/>
+      <c r="FQ3" s="14"/>
+      <c r="FR3" s="14"/>
+      <c r="FS3" s="14"/>
+      <c r="FT3" s="14"/>
+      <c r="FU3" s="14"/>
+    </row>
+    <row r="4" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE833B08-66C5-434E-B554-B8B40AFEC673}">
+  <dimension ref="A1:FU4"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.125" style="36" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="35" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="36" customWidth="1"/>
+    <col min="34" max="37" width="4" style="36" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+    </row>
+    <row r="2" spans="1:177" ht="12.95" customHeight="1">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="67"/>
+    </row>
+    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
+      <c r="BU3" s="14"/>
+      <c r="BV3" s="14"/>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="14"/>
+      <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
+      <c r="CA3" s="14"/>
+      <c r="CB3" s="14"/>
+      <c r="CC3" s="14"/>
+      <c r="CD3" s="14"/>
+      <c r="CE3" s="14"/>
+      <c r="CF3" s="14"/>
+      <c r="CG3" s="14"/>
+      <c r="CH3" s="14"/>
+      <c r="CI3" s="14"/>
+      <c r="CJ3" s="14"/>
+      <c r="CK3" s="14"/>
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="14"/>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
+      <c r="CS3" s="14"/>
+      <c r="CT3" s="14"/>
+      <c r="CU3" s="14"/>
+      <c r="CV3" s="14"/>
+      <c r="CW3" s="14"/>
+      <c r="CX3" s="14"/>
+      <c r="CY3" s="14"/>
+      <c r="CZ3" s="14"/>
+      <c r="DA3" s="14"/>
+      <c r="DB3" s="14"/>
+      <c r="DC3" s="14"/>
+      <c r="DD3" s="14"/>
+      <c r="DE3" s="14"/>
+      <c r="DF3" s="14"/>
+      <c r="DG3" s="14"/>
+      <c r="DH3" s="14"/>
+      <c r="DI3" s="14"/>
+      <c r="DJ3" s="14"/>
+      <c r="DK3" s="14"/>
+      <c r="DL3" s="14"/>
+      <c r="DM3" s="14"/>
+      <c r="DN3" s="14"/>
+      <c r="DO3" s="14"/>
+      <c r="DP3" s="14"/>
+      <c r="DQ3" s="14"/>
+      <c r="DR3" s="14"/>
+      <c r="DS3" s="14"/>
+      <c r="DT3" s="14"/>
+      <c r="DU3" s="14"/>
+      <c r="DV3" s="14"/>
+      <c r="DW3" s="14"/>
+      <c r="DX3" s="14"/>
+      <c r="DY3" s="14"/>
+      <c r="DZ3" s="14"/>
+      <c r="EA3" s="14"/>
+      <c r="EB3" s="14"/>
+      <c r="EC3" s="14"/>
+      <c r="ED3" s="14"/>
+      <c r="EE3" s="14"/>
+      <c r="EF3" s="14"/>
+      <c r="EG3" s="14"/>
+      <c r="EH3" s="14"/>
+      <c r="EI3" s="14"/>
+      <c r="EJ3" s="14"/>
+      <c r="EK3" s="14"/>
+      <c r="EL3" s="14"/>
+      <c r="EM3" s="14"/>
+      <c r="EN3" s="14"/>
+      <c r="EO3" s="14"/>
+      <c r="EP3" s="14"/>
+      <c r="EQ3" s="14"/>
+      <c r="ER3" s="14"/>
+      <c r="ES3" s="14"/>
+      <c r="ET3" s="14"/>
+      <c r="EU3" s="14"/>
+      <c r="EV3" s="14"/>
+      <c r="EW3" s="14"/>
+      <c r="EX3" s="14"/>
+      <c r="EY3" s="14"/>
+      <c r="EZ3" s="14"/>
+      <c r="FA3" s="14"/>
+      <c r="FB3" s="14"/>
+      <c r="FC3" s="14"/>
+      <c r="FD3" s="14"/>
+      <c r="FE3" s="14"/>
+      <c r="FF3" s="14"/>
+      <c r="FG3" s="14"/>
+      <c r="FH3" s="14"/>
+      <c r="FI3" s="14"/>
+      <c r="FJ3" s="14"/>
+      <c r="FK3" s="14"/>
+      <c r="FL3" s="14"/>
+      <c r="FM3" s="14"/>
+      <c r="FN3" s="14"/>
+      <c r="FO3" s="14"/>
+      <c r="FP3" s="14"/>
+      <c r="FQ3" s="14"/>
+      <c r="FR3" s="14"/>
+      <c r="FS3" s="14"/>
+      <c r="FT3" s="14"/>
+      <c r="FU3" s="14"/>
+    </row>
+    <row r="4" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61152D13-3A67-497D-8C27-CFCA093278D5}">
+  <dimension ref="A1:FU4"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.125" style="36" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="35" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="36" customWidth="1"/>
+    <col min="34" max="37" width="4" style="36" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+    </row>
+    <row r="2" spans="1:177" ht="12.95" customHeight="1">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="67"/>
+    </row>
+    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
+      <c r="BU3" s="14"/>
+      <c r="BV3" s="14"/>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="14"/>
+      <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
+      <c r="CA3" s="14"/>
+      <c r="CB3" s="14"/>
+      <c r="CC3" s="14"/>
+      <c r="CD3" s="14"/>
+      <c r="CE3" s="14"/>
+      <c r="CF3" s="14"/>
+      <c r="CG3" s="14"/>
+      <c r="CH3" s="14"/>
+      <c r="CI3" s="14"/>
+      <c r="CJ3" s="14"/>
+      <c r="CK3" s="14"/>
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="14"/>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
+      <c r="CS3" s="14"/>
+      <c r="CT3" s="14"/>
+      <c r="CU3" s="14"/>
+      <c r="CV3" s="14"/>
+      <c r="CW3" s="14"/>
+      <c r="CX3" s="14"/>
+      <c r="CY3" s="14"/>
+      <c r="CZ3" s="14"/>
+      <c r="DA3" s="14"/>
+      <c r="DB3" s="14"/>
+      <c r="DC3" s="14"/>
+      <c r="DD3" s="14"/>
+      <c r="DE3" s="14"/>
+      <c r="DF3" s="14"/>
+      <c r="DG3" s="14"/>
+      <c r="DH3" s="14"/>
+      <c r="DI3" s="14"/>
+      <c r="DJ3" s="14"/>
+      <c r="DK3" s="14"/>
+      <c r="DL3" s="14"/>
+      <c r="DM3" s="14"/>
+      <c r="DN3" s="14"/>
+      <c r="DO3" s="14"/>
+      <c r="DP3" s="14"/>
+      <c r="DQ3" s="14"/>
+      <c r="DR3" s="14"/>
+      <c r="DS3" s="14"/>
+      <c r="DT3" s="14"/>
+      <c r="DU3" s="14"/>
+      <c r="DV3" s="14"/>
+      <c r="DW3" s="14"/>
+      <c r="DX3" s="14"/>
+      <c r="DY3" s="14"/>
+      <c r="DZ3" s="14"/>
+      <c r="EA3" s="14"/>
+      <c r="EB3" s="14"/>
+      <c r="EC3" s="14"/>
+      <c r="ED3" s="14"/>
+      <c r="EE3" s="14"/>
+      <c r="EF3" s="14"/>
+      <c r="EG3" s="14"/>
+      <c r="EH3" s="14"/>
+      <c r="EI3" s="14"/>
+      <c r="EJ3" s="14"/>
+      <c r="EK3" s="14"/>
+      <c r="EL3" s="14"/>
+      <c r="EM3" s="14"/>
+      <c r="EN3" s="14"/>
+      <c r="EO3" s="14"/>
+      <c r="EP3" s="14"/>
+      <c r="EQ3" s="14"/>
+      <c r="ER3" s="14"/>
+      <c r="ES3" s="14"/>
+      <c r="ET3" s="14"/>
+      <c r="EU3" s="14"/>
+      <c r="EV3" s="14"/>
+      <c r="EW3" s="14"/>
+      <c r="EX3" s="14"/>
+      <c r="EY3" s="14"/>
+      <c r="EZ3" s="14"/>
+      <c r="FA3" s="14"/>
+      <c r="FB3" s="14"/>
+      <c r="FC3" s="14"/>
+      <c r="FD3" s="14"/>
+      <c r="FE3" s="14"/>
+      <c r="FF3" s="14"/>
+      <c r="FG3" s="14"/>
+      <c r="FH3" s="14"/>
+      <c r="FI3" s="14"/>
+      <c r="FJ3" s="14"/>
+      <c r="FK3" s="14"/>
+      <c r="FL3" s="14"/>
+      <c r="FM3" s="14"/>
+      <c r="FN3" s="14"/>
+      <c r="FO3" s="14"/>
+      <c r="FP3" s="14"/>
+      <c r="FQ3" s="14"/>
+      <c r="FR3" s="14"/>
+      <c r="FS3" s="14"/>
+      <c r="FT3" s="14"/>
+      <c r="FU3" s="14"/>
+    </row>
+    <row r="4" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B7063F-6DF5-449D-B18F-402E0A8C2DF9}">
+  <dimension ref="A1:FU4"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:AC3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.125" style="36" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="35" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="36" customWidth="1"/>
+    <col min="34" max="37" width="4" style="36" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+    </row>
+    <row r="2" spans="1:177" ht="12.95" customHeight="1">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="67"/>
+    </row>
+    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
+      <c r="BU3" s="14"/>
+      <c r="BV3" s="14"/>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="14"/>
+      <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
+      <c r="CA3" s="14"/>
+      <c r="CB3" s="14"/>
+      <c r="CC3" s="14"/>
+      <c r="CD3" s="14"/>
+      <c r="CE3" s="14"/>
+      <c r="CF3" s="14"/>
+      <c r="CG3" s="14"/>
+      <c r="CH3" s="14"/>
+      <c r="CI3" s="14"/>
+      <c r="CJ3" s="14"/>
+      <c r="CK3" s="14"/>
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="14"/>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
+      <c r="CS3" s="14"/>
+      <c r="CT3" s="14"/>
+      <c r="CU3" s="14"/>
+      <c r="CV3" s="14"/>
+      <c r="CW3" s="14"/>
+      <c r="CX3" s="14"/>
+      <c r="CY3" s="14"/>
+      <c r="CZ3" s="14"/>
+      <c r="DA3" s="14"/>
+      <c r="DB3" s="14"/>
+      <c r="DC3" s="14"/>
+      <c r="DD3" s="14"/>
+      <c r="DE3" s="14"/>
+      <c r="DF3" s="14"/>
+      <c r="DG3" s="14"/>
+      <c r="DH3" s="14"/>
+      <c r="DI3" s="14"/>
+      <c r="DJ3" s="14"/>
+      <c r="DK3" s="14"/>
+      <c r="DL3" s="14"/>
+      <c r="DM3" s="14"/>
+      <c r="DN3" s="14"/>
+      <c r="DO3" s="14"/>
+      <c r="DP3" s="14"/>
+      <c r="DQ3" s="14"/>
+      <c r="DR3" s="14"/>
+      <c r="DS3" s="14"/>
+      <c r="DT3" s="14"/>
+      <c r="DU3" s="14"/>
+      <c r="DV3" s="14"/>
+      <c r="DW3" s="14"/>
+      <c r="DX3" s="14"/>
+      <c r="DY3" s="14"/>
+      <c r="DZ3" s="14"/>
+      <c r="EA3" s="14"/>
+      <c r="EB3" s="14"/>
+      <c r="EC3" s="14"/>
+      <c r="ED3" s="14"/>
+      <c r="EE3" s="14"/>
+      <c r="EF3" s="14"/>
+      <c r="EG3" s="14"/>
+      <c r="EH3" s="14"/>
+      <c r="EI3" s="14"/>
+      <c r="EJ3" s="14"/>
+      <c r="EK3" s="14"/>
+      <c r="EL3" s="14"/>
+      <c r="EM3" s="14"/>
+      <c r="EN3" s="14"/>
+      <c r="EO3" s="14"/>
+      <c r="EP3" s="14"/>
+      <c r="EQ3" s="14"/>
+      <c r="ER3" s="14"/>
+      <c r="ES3" s="14"/>
+      <c r="ET3" s="14"/>
+      <c r="EU3" s="14"/>
+      <c r="EV3" s="14"/>
+      <c r="EW3" s="14"/>
+      <c r="EX3" s="14"/>
+      <c r="EY3" s="14"/>
+      <c r="EZ3" s="14"/>
+      <c r="FA3" s="14"/>
+      <c r="FB3" s="14"/>
+      <c r="FC3" s="14"/>
+      <c r="FD3" s="14"/>
+      <c r="FE3" s="14"/>
+      <c r="FF3" s="14"/>
+      <c r="FG3" s="14"/>
+      <c r="FH3" s="14"/>
+      <c r="FI3" s="14"/>
+      <c r="FJ3" s="14"/>
+      <c r="FK3" s="14"/>
+      <c r="FL3" s="14"/>
+      <c r="FM3" s="14"/>
+      <c r="FN3" s="14"/>
+      <c r="FO3" s="14"/>
+      <c r="FP3" s="14"/>
+      <c r="FQ3" s="14"/>
+      <c r="FR3" s="14"/>
+      <c r="FS3" s="14"/>
+      <c r="FT3" s="14"/>
+      <c r="FU3" s="14"/>
+    </row>
+    <row r="4" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A602DAB-1E7A-4172-9B39-24C8E13E6738}">
+  <dimension ref="A1:FU4"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:AC3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.125" style="36" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="35" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="36" customWidth="1"/>
+    <col min="34" max="37" width="4" style="36" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+    </row>
+    <row r="2" spans="1:177" ht="12.95" customHeight="1">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="67"/>
+    </row>
+    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
+      <c r="BU3" s="14"/>
+      <c r="BV3" s="14"/>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="14"/>
+      <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
+      <c r="CA3" s="14"/>
+      <c r="CB3" s="14"/>
+      <c r="CC3" s="14"/>
+      <c r="CD3" s="14"/>
+      <c r="CE3" s="14"/>
+      <c r="CF3" s="14"/>
+      <c r="CG3" s="14"/>
+      <c r="CH3" s="14"/>
+      <c r="CI3" s="14"/>
+      <c r="CJ3" s="14"/>
+      <c r="CK3" s="14"/>
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="14"/>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
+      <c r="CS3" s="14"/>
+      <c r="CT3" s="14"/>
+      <c r="CU3" s="14"/>
+      <c r="CV3" s="14"/>
+      <c r="CW3" s="14"/>
+      <c r="CX3" s="14"/>
+      <c r="CY3" s="14"/>
+      <c r="CZ3" s="14"/>
+      <c r="DA3" s="14"/>
+      <c r="DB3" s="14"/>
+      <c r="DC3" s="14"/>
+      <c r="DD3" s="14"/>
+      <c r="DE3" s="14"/>
+      <c r="DF3" s="14"/>
+      <c r="DG3" s="14"/>
+      <c r="DH3" s="14"/>
+      <c r="DI3" s="14"/>
+      <c r="DJ3" s="14"/>
+      <c r="DK3" s="14"/>
+      <c r="DL3" s="14"/>
+      <c r="DM3" s="14"/>
+      <c r="DN3" s="14"/>
+      <c r="DO3" s="14"/>
+      <c r="DP3" s="14"/>
+      <c r="DQ3" s="14"/>
+      <c r="DR3" s="14"/>
+      <c r="DS3" s="14"/>
+      <c r="DT3" s="14"/>
+      <c r="DU3" s="14"/>
+      <c r="DV3" s="14"/>
+      <c r="DW3" s="14"/>
+      <c r="DX3" s="14"/>
+      <c r="DY3" s="14"/>
+      <c r="DZ3" s="14"/>
+      <c r="EA3" s="14"/>
+      <c r="EB3" s="14"/>
+      <c r="EC3" s="14"/>
+      <c r="ED3" s="14"/>
+      <c r="EE3" s="14"/>
+      <c r="EF3" s="14"/>
+      <c r="EG3" s="14"/>
+      <c r="EH3" s="14"/>
+      <c r="EI3" s="14"/>
+      <c r="EJ3" s="14"/>
+      <c r="EK3" s="14"/>
+      <c r="EL3" s="14"/>
+      <c r="EM3" s="14"/>
+      <c r="EN3" s="14"/>
+      <c r="EO3" s="14"/>
+      <c r="EP3" s="14"/>
+      <c r="EQ3" s="14"/>
+      <c r="ER3" s="14"/>
+      <c r="ES3" s="14"/>
+      <c r="ET3" s="14"/>
+      <c r="EU3" s="14"/>
+      <c r="EV3" s="14"/>
+      <c r="EW3" s="14"/>
+      <c r="EX3" s="14"/>
+      <c r="EY3" s="14"/>
+      <c r="EZ3" s="14"/>
+      <c r="FA3" s="14"/>
+      <c r="FB3" s="14"/>
+      <c r="FC3" s="14"/>
+      <c r="FD3" s="14"/>
+      <c r="FE3" s="14"/>
+      <c r="FF3" s="14"/>
+      <c r="FG3" s="14"/>
+      <c r="FH3" s="14"/>
+      <c r="FI3" s="14"/>
+      <c r="FJ3" s="14"/>
+      <c r="FK3" s="14"/>
+      <c r="FL3" s="14"/>
+      <c r="FM3" s="14"/>
+      <c r="FN3" s="14"/>
+      <c r="FO3" s="14"/>
+      <c r="FP3" s="14"/>
+      <c r="FQ3" s="14"/>
+      <c r="FR3" s="14"/>
+      <c r="FS3" s="14"/>
+      <c r="FT3" s="14"/>
+      <c r="FU3" s="14"/>
+    </row>
+    <row r="4" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3376D4B-FD53-49D0-8188-8036C55B7D26}">
+  <dimension ref="A1:FU4"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13:AG13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.125" style="36" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="35" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="36" customWidth="1"/>
+    <col min="34" max="37" width="4" style="36" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+    </row>
+    <row r="2" spans="1:177" ht="12.95" customHeight="1">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="67"/>
+    </row>
+    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
+      <c r="BU3" s="14"/>
+      <c r="BV3" s="14"/>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="14"/>
+      <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
+      <c r="CA3" s="14"/>
+      <c r="CB3" s="14"/>
+      <c r="CC3" s="14"/>
+      <c r="CD3" s="14"/>
+      <c r="CE3" s="14"/>
+      <c r="CF3" s="14"/>
+      <c r="CG3" s="14"/>
+      <c r="CH3" s="14"/>
+      <c r="CI3" s="14"/>
+      <c r="CJ3" s="14"/>
+      <c r="CK3" s="14"/>
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="14"/>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
+      <c r="CS3" s="14"/>
+      <c r="CT3" s="14"/>
+      <c r="CU3" s="14"/>
+      <c r="CV3" s="14"/>
+      <c r="CW3" s="14"/>
+      <c r="CX3" s="14"/>
+      <c r="CY3" s="14"/>
+      <c r="CZ3" s="14"/>
+      <c r="DA3" s="14"/>
+      <c r="DB3" s="14"/>
+      <c r="DC3" s="14"/>
+      <c r="DD3" s="14"/>
+      <c r="DE3" s="14"/>
+      <c r="DF3" s="14"/>
+      <c r="DG3" s="14"/>
+      <c r="DH3" s="14"/>
+      <c r="DI3" s="14"/>
+      <c r="DJ3" s="14"/>
+      <c r="DK3" s="14"/>
+      <c r="DL3" s="14"/>
+      <c r="DM3" s="14"/>
+      <c r="DN3" s="14"/>
+      <c r="DO3" s="14"/>
+      <c r="DP3" s="14"/>
+      <c r="DQ3" s="14"/>
+      <c r="DR3" s="14"/>
+      <c r="DS3" s="14"/>
+      <c r="DT3" s="14"/>
+      <c r="DU3" s="14"/>
+      <c r="DV3" s="14"/>
+      <c r="DW3" s="14"/>
+      <c r="DX3" s="14"/>
+      <c r="DY3" s="14"/>
+      <c r="DZ3" s="14"/>
+      <c r="EA3" s="14"/>
+      <c r="EB3" s="14"/>
+      <c r="EC3" s="14"/>
+      <c r="ED3" s="14"/>
+      <c r="EE3" s="14"/>
+      <c r="EF3" s="14"/>
+      <c r="EG3" s="14"/>
+      <c r="EH3" s="14"/>
+      <c r="EI3" s="14"/>
+      <c r="EJ3" s="14"/>
+      <c r="EK3" s="14"/>
+      <c r="EL3" s="14"/>
+      <c r="EM3" s="14"/>
+      <c r="EN3" s="14"/>
+      <c r="EO3" s="14"/>
+      <c r="EP3" s="14"/>
+      <c r="EQ3" s="14"/>
+      <c r="ER3" s="14"/>
+      <c r="ES3" s="14"/>
+      <c r="ET3" s="14"/>
+      <c r="EU3" s="14"/>
+      <c r="EV3" s="14"/>
+      <c r="EW3" s="14"/>
+      <c r="EX3" s="14"/>
+      <c r="EY3" s="14"/>
+      <c r="EZ3" s="14"/>
+      <c r="FA3" s="14"/>
+      <c r="FB3" s="14"/>
+      <c r="FC3" s="14"/>
+      <c r="FD3" s="14"/>
+      <c r="FE3" s="14"/>
+      <c r="FF3" s="14"/>
+      <c r="FG3" s="14"/>
+      <c r="FH3" s="14"/>
+      <c r="FI3" s="14"/>
+      <c r="FJ3" s="14"/>
+      <c r="FK3" s="14"/>
+      <c r="FL3" s="14"/>
+      <c r="FM3" s="14"/>
+      <c r="FN3" s="14"/>
+      <c r="FO3" s="14"/>
+      <c r="FP3" s="14"/>
+      <c r="FQ3" s="14"/>
+      <c r="FR3" s="14"/>
+      <c r="FS3" s="14"/>
+      <c r="FT3" s="14"/>
+      <c r="FU3" s="14"/>
+    </row>
+    <row r="4" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B24198-8490-4B8C-B395-2125165C44F6}">
+  <dimension ref="A1:FU4"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK22" sqref="AK22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.125" style="36" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="35" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="36" customWidth="1"/>
+    <col min="34" max="37" width="4" style="36" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+    </row>
+    <row r="2" spans="1:177" ht="12.95" customHeight="1">
+      <c r="A2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="67"/>
+    </row>
+    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
+      <c r="BU3" s="14"/>
+      <c r="BV3" s="14"/>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="14"/>
+      <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
+      <c r="CA3" s="14"/>
+      <c r="CB3" s="14"/>
+      <c r="CC3" s="14"/>
+      <c r="CD3" s="14"/>
+      <c r="CE3" s="14"/>
+      <c r="CF3" s="14"/>
+      <c r="CG3" s="14"/>
+      <c r="CH3" s="14"/>
+      <c r="CI3" s="14"/>
+      <c r="CJ3" s="14"/>
+      <c r="CK3" s="14"/>
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="14"/>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
+      <c r="CS3" s="14"/>
+      <c r="CT3" s="14"/>
+      <c r="CU3" s="14"/>
+      <c r="CV3" s="14"/>
+      <c r="CW3" s="14"/>
+      <c r="CX3" s="14"/>
+      <c r="CY3" s="14"/>
+      <c r="CZ3" s="14"/>
+      <c r="DA3" s="14"/>
+      <c r="DB3" s="14"/>
+      <c r="DC3" s="14"/>
+      <c r="DD3" s="14"/>
+      <c r="DE3" s="14"/>
+      <c r="DF3" s="14"/>
+      <c r="DG3" s="14"/>
+      <c r="DH3" s="14"/>
+      <c r="DI3" s="14"/>
+      <c r="DJ3" s="14"/>
+      <c r="DK3" s="14"/>
+      <c r="DL3" s="14"/>
+      <c r="DM3" s="14"/>
+      <c r="DN3" s="14"/>
+      <c r="DO3" s="14"/>
+      <c r="DP3" s="14"/>
+      <c r="DQ3" s="14"/>
+      <c r="DR3" s="14"/>
+      <c r="DS3" s="14"/>
+      <c r="DT3" s="14"/>
+      <c r="DU3" s="14"/>
+      <c r="DV3" s="14"/>
+      <c r="DW3" s="14"/>
+      <c r="DX3" s="14"/>
+      <c r="DY3" s="14"/>
+      <c r="DZ3" s="14"/>
+      <c r="EA3" s="14"/>
+      <c r="EB3" s="14"/>
+      <c r="EC3" s="14"/>
+      <c r="ED3" s="14"/>
+      <c r="EE3" s="14"/>
+      <c r="EF3" s="14"/>
+      <c r="EG3" s="14"/>
+      <c r="EH3" s="14"/>
+      <c r="EI3" s="14"/>
+      <c r="EJ3" s="14"/>
+      <c r="EK3" s="14"/>
+      <c r="EL3" s="14"/>
+      <c r="EM3" s="14"/>
+      <c r="EN3" s="14"/>
+      <c r="EO3" s="14"/>
+      <c r="EP3" s="14"/>
+      <c r="EQ3" s="14"/>
+      <c r="ER3" s="14"/>
+      <c r="ES3" s="14"/>
+      <c r="ET3" s="14"/>
+      <c r="EU3" s="14"/>
+      <c r="EV3" s="14"/>
+      <c r="EW3" s="14"/>
+      <c r="EX3" s="14"/>
+      <c r="EY3" s="14"/>
+      <c r="EZ3" s="14"/>
+      <c r="FA3" s="14"/>
+      <c r="FB3" s="14"/>
+      <c r="FC3" s="14"/>
+      <c r="FD3" s="14"/>
+      <c r="FE3" s="14"/>
+      <c r="FF3" s="14"/>
+      <c r="FG3" s="14"/>
+      <c r="FH3" s="14"/>
+      <c r="FI3" s="14"/>
+      <c r="FJ3" s="14"/>
+      <c r="FK3" s="14"/>
+      <c r="FL3" s="14"/>
+      <c r="FM3" s="14"/>
+      <c r="FN3" s="14"/>
+      <c r="FO3" s="14"/>
+      <c r="FP3" s="14"/>
+      <c r="FQ3" s="14"/>
+      <c r="FR3" s="14"/>
+      <c r="FS3" s="14"/>
+      <c r="FT3" s="14"/>
+      <c r="FU3" s="14"/>
+    </row>
+    <row r="4" spans="1:177" ht="12.75" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1E413-67AB-4B9E-BB65-31E958657028}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -17083,7 +18740,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -17108,7 +18765,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -18490,7 +20147,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -18525,9 +20182,7 @@
       <c r="AG39" s="18"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="A40" s="16"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -18654,12 +20309,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F84A21E-F668-4EED-ABCD-4E0025CCF0E7}">
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -18761,7 +20416,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -18786,7 +20441,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -18975,11 +20630,11 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
@@ -18996,12 +20651,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61152D13-3A67-497D-8C27-CFCA093278D5}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135BD341-893F-4CFB-955F-B2066D5C060E}">
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+      <selection activeCell="G3" sqref="G3:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -19103,7 +20758,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -19128,7 +20783,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -19338,11 +20993,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B7063F-6DF5-449D-B18F-402E0A8C2DF9}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0934C29C-3CED-4FF0-B708-6DDBC94E059D}">
   <dimension ref="A1:FU4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:AC3"/>
     </sheetView>
   </sheetViews>
@@ -19445,7 +21100,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -19470,7 +21125,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -19680,12 +21335,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A602DAB-1E7A-4172-9B39-24C8E13E6738}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB41137-33AE-4D44-8FB3-837F40E5DD28}">
   <dimension ref="A1:FU4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:AC3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -19787,7 +21442,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -19812,7 +21467,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -20022,12 +21677,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3376D4B-FD53-49D0-8188-8036C55B7D26}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D721FA-BF20-437B-82EA-70E9376DA5F5}">
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13:AG13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -20129,7 +21784,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -20154,7 +21809,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -20364,354 +22019,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B24198-8490-4B8C-B395-2125165C44F6}">
-  <dimension ref="A1:FU4"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK22" sqref="AK22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="4.125" style="36" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="35" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="36" customWidth="1"/>
-    <col min="34" max="37" width="4" style="36" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-    </row>
-    <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="67"/>
-    </row>
-    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="14"/>
-      <c r="BM3" s="14"/>
-      <c r="BN3" s="14"/>
-      <c r="BO3" s="14"/>
-      <c r="BP3" s="14"/>
-      <c r="BQ3" s="14"/>
-      <c r="BR3" s="14"/>
-      <c r="BS3" s="14"/>
-      <c r="BT3" s="14"/>
-      <c r="BU3" s="14"/>
-      <c r="BV3" s="14"/>
-      <c r="BW3" s="14"/>
-      <c r="BX3" s="14"/>
-      <c r="BY3" s="14"/>
-      <c r="BZ3" s="14"/>
-      <c r="CA3" s="14"/>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="14"/>
-      <c r="CD3" s="14"/>
-      <c r="CE3" s="14"/>
-      <c r="CF3" s="14"/>
-      <c r="CG3" s="14"/>
-      <c r="CH3" s="14"/>
-      <c r="CI3" s="14"/>
-      <c r="CJ3" s="14"/>
-      <c r="CK3" s="14"/>
-      <c r="CL3" s="14"/>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14"/>
-      <c r="CO3" s="14"/>
-      <c r="CP3" s="14"/>
-      <c r="CQ3" s="14"/>
-      <c r="CR3" s="14"/>
-      <c r="CS3" s="14"/>
-      <c r="CT3" s="14"/>
-      <c r="CU3" s="14"/>
-      <c r="CV3" s="14"/>
-      <c r="CW3" s="14"/>
-      <c r="CX3" s="14"/>
-      <c r="CY3" s="14"/>
-      <c r="CZ3" s="14"/>
-      <c r="DA3" s="14"/>
-      <c r="DB3" s="14"/>
-      <c r="DC3" s="14"/>
-      <c r="DD3" s="14"/>
-      <c r="DE3" s="14"/>
-      <c r="DF3" s="14"/>
-      <c r="DG3" s="14"/>
-      <c r="DH3" s="14"/>
-      <c r="DI3" s="14"/>
-      <c r="DJ3" s="14"/>
-      <c r="DK3" s="14"/>
-      <c r="DL3" s="14"/>
-      <c r="DM3" s="14"/>
-      <c r="DN3" s="14"/>
-      <c r="DO3" s="14"/>
-      <c r="DP3" s="14"/>
-      <c r="DQ3" s="14"/>
-      <c r="DR3" s="14"/>
-      <c r="DS3" s="14"/>
-      <c r="DT3" s="14"/>
-      <c r="DU3" s="14"/>
-      <c r="DV3" s="14"/>
-      <c r="DW3" s="14"/>
-      <c r="DX3" s="14"/>
-      <c r="DY3" s="14"/>
-      <c r="DZ3" s="14"/>
-      <c r="EA3" s="14"/>
-      <c r="EB3" s="14"/>
-      <c r="EC3" s="14"/>
-      <c r="ED3" s="14"/>
-      <c r="EE3" s="14"/>
-      <c r="EF3" s="14"/>
-      <c r="EG3" s="14"/>
-      <c r="EH3" s="14"/>
-      <c r="EI3" s="14"/>
-      <c r="EJ3" s="14"/>
-      <c r="EK3" s="14"/>
-      <c r="EL3" s="14"/>
-      <c r="EM3" s="14"/>
-      <c r="EN3" s="14"/>
-      <c r="EO3" s="14"/>
-      <c r="EP3" s="14"/>
-      <c r="EQ3" s="14"/>
-      <c r="ER3" s="14"/>
-      <c r="ES3" s="14"/>
-      <c r="ET3" s="14"/>
-      <c r="EU3" s="14"/>
-      <c r="EV3" s="14"/>
-      <c r="EW3" s="14"/>
-      <c r="EX3" s="14"/>
-      <c r="EY3" s="14"/>
-      <c r="EZ3" s="14"/>
-      <c r="FA3" s="14"/>
-      <c r="FB3" s="14"/>
-      <c r="FC3" s="14"/>
-      <c r="FD3" s="14"/>
-      <c r="FE3" s="14"/>
-      <c r="FF3" s="14"/>
-      <c r="FG3" s="14"/>
-      <c r="FH3" s="14"/>
-      <c r="FI3" s="14"/>
-      <c r="FJ3" s="14"/>
-      <c r="FK3" s="14"/>
-      <c r="FL3" s="14"/>
-      <c r="FM3" s="14"/>
-      <c r="FN3" s="14"/>
-      <c r="FO3" s="14"/>
-      <c r="FP3" s="14"/>
-      <c r="FQ3" s="14"/>
-      <c r="FR3" s="14"/>
-      <c r="FS3" s="14"/>
-      <c r="FT3" s="14"/>
-      <c r="FU3" s="14"/>
-    </row>
-    <row r="4" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1E413-67AB-4B9E-BB65-31E958657028}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -20813,7 +22126,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -20838,7 +22151,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -22220,7 +23533,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -22256,7 +23569,9 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16"/>
-      <c r="B40" s="13"/>
+      <c r="B40" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -22290,7 +23605,9 @@
       <c r="AG40" s="18"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="16"/>
+      <c r="A41" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -22361,15 +23678,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="G3:AC3"/>
     <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -22382,1722 +23699,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F84A21E-F668-4EED-ABCD-4E0025CCF0E7}">
-  <dimension ref="A1:FU4"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="4.125" style="36" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="35" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="36" customWidth="1"/>
-    <col min="34" max="37" width="4" style="36" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-    </row>
-    <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="67"/>
-    </row>
-    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="14"/>
-      <c r="BM3" s="14"/>
-      <c r="BN3" s="14"/>
-      <c r="BO3" s="14"/>
-      <c r="BP3" s="14"/>
-      <c r="BQ3" s="14"/>
-      <c r="BR3" s="14"/>
-      <c r="BS3" s="14"/>
-      <c r="BT3" s="14"/>
-      <c r="BU3" s="14"/>
-      <c r="BV3" s="14"/>
-      <c r="BW3" s="14"/>
-      <c r="BX3" s="14"/>
-      <c r="BY3" s="14"/>
-      <c r="BZ3" s="14"/>
-      <c r="CA3" s="14"/>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="14"/>
-      <c r="CD3" s="14"/>
-      <c r="CE3" s="14"/>
-      <c r="CF3" s="14"/>
-      <c r="CG3" s="14"/>
-      <c r="CH3" s="14"/>
-      <c r="CI3" s="14"/>
-      <c r="CJ3" s="14"/>
-      <c r="CK3" s="14"/>
-      <c r="CL3" s="14"/>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14"/>
-      <c r="CO3" s="14"/>
-      <c r="CP3" s="14"/>
-      <c r="CQ3" s="14"/>
-      <c r="CR3" s="14"/>
-      <c r="CS3" s="14"/>
-      <c r="CT3" s="14"/>
-      <c r="CU3" s="14"/>
-      <c r="CV3" s="14"/>
-      <c r="CW3" s="14"/>
-      <c r="CX3" s="14"/>
-      <c r="CY3" s="14"/>
-      <c r="CZ3" s="14"/>
-      <c r="DA3" s="14"/>
-      <c r="DB3" s="14"/>
-      <c r="DC3" s="14"/>
-      <c r="DD3" s="14"/>
-      <c r="DE3" s="14"/>
-      <c r="DF3" s="14"/>
-      <c r="DG3" s="14"/>
-      <c r="DH3" s="14"/>
-      <c r="DI3" s="14"/>
-      <c r="DJ3" s="14"/>
-      <c r="DK3" s="14"/>
-      <c r="DL3" s="14"/>
-      <c r="DM3" s="14"/>
-      <c r="DN3" s="14"/>
-      <c r="DO3" s="14"/>
-      <c r="DP3" s="14"/>
-      <c r="DQ3" s="14"/>
-      <c r="DR3" s="14"/>
-      <c r="DS3" s="14"/>
-      <c r="DT3" s="14"/>
-      <c r="DU3" s="14"/>
-      <c r="DV3" s="14"/>
-      <c r="DW3" s="14"/>
-      <c r="DX3" s="14"/>
-      <c r="DY3" s="14"/>
-      <c r="DZ3" s="14"/>
-      <c r="EA3" s="14"/>
-      <c r="EB3" s="14"/>
-      <c r="EC3" s="14"/>
-      <c r="ED3" s="14"/>
-      <c r="EE3" s="14"/>
-      <c r="EF3" s="14"/>
-      <c r="EG3" s="14"/>
-      <c r="EH3" s="14"/>
-      <c r="EI3" s="14"/>
-      <c r="EJ3" s="14"/>
-      <c r="EK3" s="14"/>
-      <c r="EL3" s="14"/>
-      <c r="EM3" s="14"/>
-      <c r="EN3" s="14"/>
-      <c r="EO3" s="14"/>
-      <c r="EP3" s="14"/>
-      <c r="EQ3" s="14"/>
-      <c r="ER3" s="14"/>
-      <c r="ES3" s="14"/>
-      <c r="ET3" s="14"/>
-      <c r="EU3" s="14"/>
-      <c r="EV3" s="14"/>
-      <c r="EW3" s="14"/>
-      <c r="EX3" s="14"/>
-      <c r="EY3" s="14"/>
-      <c r="EZ3" s="14"/>
-      <c r="FA3" s="14"/>
-      <c r="FB3" s="14"/>
-      <c r="FC3" s="14"/>
-      <c r="FD3" s="14"/>
-      <c r="FE3" s="14"/>
-      <c r="FF3" s="14"/>
-      <c r="FG3" s="14"/>
-      <c r="FH3" s="14"/>
-      <c r="FI3" s="14"/>
-      <c r="FJ3" s="14"/>
-      <c r="FK3" s="14"/>
-      <c r="FL3" s="14"/>
-      <c r="FM3" s="14"/>
-      <c r="FN3" s="14"/>
-      <c r="FO3" s="14"/>
-      <c r="FP3" s="14"/>
-      <c r="FQ3" s="14"/>
-      <c r="FR3" s="14"/>
-      <c r="FS3" s="14"/>
-      <c r="FT3" s="14"/>
-      <c r="FU3" s="14"/>
-    </row>
-    <row r="4" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135BD341-893F-4CFB-955F-B2066D5C060E}">
-  <dimension ref="A1:FU4"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:AC3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="4.125" style="36" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="35" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="36" customWidth="1"/>
-    <col min="34" max="37" width="4" style="36" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-    </row>
-    <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="67"/>
-    </row>
-    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="14"/>
-      <c r="BM3" s="14"/>
-      <c r="BN3" s="14"/>
-      <c r="BO3" s="14"/>
-      <c r="BP3" s="14"/>
-      <c r="BQ3" s="14"/>
-      <c r="BR3" s="14"/>
-      <c r="BS3" s="14"/>
-      <c r="BT3" s="14"/>
-      <c r="BU3" s="14"/>
-      <c r="BV3" s="14"/>
-      <c r="BW3" s="14"/>
-      <c r="BX3" s="14"/>
-      <c r="BY3" s="14"/>
-      <c r="BZ3" s="14"/>
-      <c r="CA3" s="14"/>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="14"/>
-      <c r="CD3" s="14"/>
-      <c r="CE3" s="14"/>
-      <c r="CF3" s="14"/>
-      <c r="CG3" s="14"/>
-      <c r="CH3" s="14"/>
-      <c r="CI3" s="14"/>
-      <c r="CJ3" s="14"/>
-      <c r="CK3" s="14"/>
-      <c r="CL3" s="14"/>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14"/>
-      <c r="CO3" s="14"/>
-      <c r="CP3" s="14"/>
-      <c r="CQ3" s="14"/>
-      <c r="CR3" s="14"/>
-      <c r="CS3" s="14"/>
-      <c r="CT3" s="14"/>
-      <c r="CU3" s="14"/>
-      <c r="CV3" s="14"/>
-      <c r="CW3" s="14"/>
-      <c r="CX3" s="14"/>
-      <c r="CY3" s="14"/>
-      <c r="CZ3" s="14"/>
-      <c r="DA3" s="14"/>
-      <c r="DB3" s="14"/>
-      <c r="DC3" s="14"/>
-      <c r="DD3" s="14"/>
-      <c r="DE3" s="14"/>
-      <c r="DF3" s="14"/>
-      <c r="DG3" s="14"/>
-      <c r="DH3" s="14"/>
-      <c r="DI3" s="14"/>
-      <c r="DJ3" s="14"/>
-      <c r="DK3" s="14"/>
-      <c r="DL3" s="14"/>
-      <c r="DM3" s="14"/>
-      <c r="DN3" s="14"/>
-      <c r="DO3" s="14"/>
-      <c r="DP3" s="14"/>
-      <c r="DQ3" s="14"/>
-      <c r="DR3" s="14"/>
-      <c r="DS3" s="14"/>
-      <c r="DT3" s="14"/>
-      <c r="DU3" s="14"/>
-      <c r="DV3" s="14"/>
-      <c r="DW3" s="14"/>
-      <c r="DX3" s="14"/>
-      <c r="DY3" s="14"/>
-      <c r="DZ3" s="14"/>
-      <c r="EA3" s="14"/>
-      <c r="EB3" s="14"/>
-      <c r="EC3" s="14"/>
-      <c r="ED3" s="14"/>
-      <c r="EE3" s="14"/>
-      <c r="EF3" s="14"/>
-      <c r="EG3" s="14"/>
-      <c r="EH3" s="14"/>
-      <c r="EI3" s="14"/>
-      <c r="EJ3" s="14"/>
-      <c r="EK3" s="14"/>
-      <c r="EL3" s="14"/>
-      <c r="EM3" s="14"/>
-      <c r="EN3" s="14"/>
-      <c r="EO3" s="14"/>
-      <c r="EP3" s="14"/>
-      <c r="EQ3" s="14"/>
-      <c r="ER3" s="14"/>
-      <c r="ES3" s="14"/>
-      <c r="ET3" s="14"/>
-      <c r="EU3" s="14"/>
-      <c r="EV3" s="14"/>
-      <c r="EW3" s="14"/>
-      <c r="EX3" s="14"/>
-      <c r="EY3" s="14"/>
-      <c r="EZ3" s="14"/>
-      <c r="FA3" s="14"/>
-      <c r="FB3" s="14"/>
-      <c r="FC3" s="14"/>
-      <c r="FD3" s="14"/>
-      <c r="FE3" s="14"/>
-      <c r="FF3" s="14"/>
-      <c r="FG3" s="14"/>
-      <c r="FH3" s="14"/>
-      <c r="FI3" s="14"/>
-      <c r="FJ3" s="14"/>
-      <c r="FK3" s="14"/>
-      <c r="FL3" s="14"/>
-      <c r="FM3" s="14"/>
-      <c r="FN3" s="14"/>
-      <c r="FO3" s="14"/>
-      <c r="FP3" s="14"/>
-      <c r="FQ3" s="14"/>
-      <c r="FR3" s="14"/>
-      <c r="FS3" s="14"/>
-      <c r="FT3" s="14"/>
-      <c r="FU3" s="14"/>
-    </row>
-    <row r="4" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0934C29C-3CED-4FF0-B708-6DDBC94E059D}">
-  <dimension ref="A1:FU4"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:AC3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="4.125" style="36" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="35" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="36" customWidth="1"/>
-    <col min="34" max="37" width="4" style="36" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-    </row>
-    <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="67"/>
-    </row>
-    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="14"/>
-      <c r="BM3" s="14"/>
-      <c r="BN3" s="14"/>
-      <c r="BO3" s="14"/>
-      <c r="BP3" s="14"/>
-      <c r="BQ3" s="14"/>
-      <c r="BR3" s="14"/>
-      <c r="BS3" s="14"/>
-      <c r="BT3" s="14"/>
-      <c r="BU3" s="14"/>
-      <c r="BV3" s="14"/>
-      <c r="BW3" s="14"/>
-      <c r="BX3" s="14"/>
-      <c r="BY3" s="14"/>
-      <c r="BZ3" s="14"/>
-      <c r="CA3" s="14"/>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="14"/>
-      <c r="CD3" s="14"/>
-      <c r="CE3" s="14"/>
-      <c r="CF3" s="14"/>
-      <c r="CG3" s="14"/>
-      <c r="CH3" s="14"/>
-      <c r="CI3" s="14"/>
-      <c r="CJ3" s="14"/>
-      <c r="CK3" s="14"/>
-      <c r="CL3" s="14"/>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14"/>
-      <c r="CO3" s="14"/>
-      <c r="CP3" s="14"/>
-      <c r="CQ3" s="14"/>
-      <c r="CR3" s="14"/>
-      <c r="CS3" s="14"/>
-      <c r="CT3" s="14"/>
-      <c r="CU3" s="14"/>
-      <c r="CV3" s="14"/>
-      <c r="CW3" s="14"/>
-      <c r="CX3" s="14"/>
-      <c r="CY3" s="14"/>
-      <c r="CZ3" s="14"/>
-      <c r="DA3" s="14"/>
-      <c r="DB3" s="14"/>
-      <c r="DC3" s="14"/>
-      <c r="DD3" s="14"/>
-      <c r="DE3" s="14"/>
-      <c r="DF3" s="14"/>
-      <c r="DG3" s="14"/>
-      <c r="DH3" s="14"/>
-      <c r="DI3" s="14"/>
-      <c r="DJ3" s="14"/>
-      <c r="DK3" s="14"/>
-      <c r="DL3" s="14"/>
-      <c r="DM3" s="14"/>
-      <c r="DN3" s="14"/>
-      <c r="DO3" s="14"/>
-      <c r="DP3" s="14"/>
-      <c r="DQ3" s="14"/>
-      <c r="DR3" s="14"/>
-      <c r="DS3" s="14"/>
-      <c r="DT3" s="14"/>
-      <c r="DU3" s="14"/>
-      <c r="DV3" s="14"/>
-      <c r="DW3" s="14"/>
-      <c r="DX3" s="14"/>
-      <c r="DY3" s="14"/>
-      <c r="DZ3" s="14"/>
-      <c r="EA3" s="14"/>
-      <c r="EB3" s="14"/>
-      <c r="EC3" s="14"/>
-      <c r="ED3" s="14"/>
-      <c r="EE3" s="14"/>
-      <c r="EF3" s="14"/>
-      <c r="EG3" s="14"/>
-      <c r="EH3" s="14"/>
-      <c r="EI3" s="14"/>
-      <c r="EJ3" s="14"/>
-      <c r="EK3" s="14"/>
-      <c r="EL3" s="14"/>
-      <c r="EM3" s="14"/>
-      <c r="EN3" s="14"/>
-      <c r="EO3" s="14"/>
-      <c r="EP3" s="14"/>
-      <c r="EQ3" s="14"/>
-      <c r="ER3" s="14"/>
-      <c r="ES3" s="14"/>
-      <c r="ET3" s="14"/>
-      <c r="EU3" s="14"/>
-      <c r="EV3" s="14"/>
-      <c r="EW3" s="14"/>
-      <c r="EX3" s="14"/>
-      <c r="EY3" s="14"/>
-      <c r="EZ3" s="14"/>
-      <c r="FA3" s="14"/>
-      <c r="FB3" s="14"/>
-      <c r="FC3" s="14"/>
-      <c r="FD3" s="14"/>
-      <c r="FE3" s="14"/>
-      <c r="FF3" s="14"/>
-      <c r="FG3" s="14"/>
-      <c r="FH3" s="14"/>
-      <c r="FI3" s="14"/>
-      <c r="FJ3" s="14"/>
-      <c r="FK3" s="14"/>
-      <c r="FL3" s="14"/>
-      <c r="FM3" s="14"/>
-      <c r="FN3" s="14"/>
-      <c r="FO3" s="14"/>
-      <c r="FP3" s="14"/>
-      <c r="FQ3" s="14"/>
-      <c r="FR3" s="14"/>
-      <c r="FS3" s="14"/>
-      <c r="FT3" s="14"/>
-      <c r="FU3" s="14"/>
-    </row>
-    <row r="4" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB41137-33AE-4D44-8FB3-837F40E5DD28}">
-  <dimension ref="A1:FU4"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="4.125" style="36" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="35" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="36" customWidth="1"/>
-    <col min="34" max="37" width="4" style="36" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-    </row>
-    <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="67"/>
-    </row>
-    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="14"/>
-      <c r="BM3" s="14"/>
-      <c r="BN3" s="14"/>
-      <c r="BO3" s="14"/>
-      <c r="BP3" s="14"/>
-      <c r="BQ3" s="14"/>
-      <c r="BR3" s="14"/>
-      <c r="BS3" s="14"/>
-      <c r="BT3" s="14"/>
-      <c r="BU3" s="14"/>
-      <c r="BV3" s="14"/>
-      <c r="BW3" s="14"/>
-      <c r="BX3" s="14"/>
-      <c r="BY3" s="14"/>
-      <c r="BZ3" s="14"/>
-      <c r="CA3" s="14"/>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="14"/>
-      <c r="CD3" s="14"/>
-      <c r="CE3" s="14"/>
-      <c r="CF3" s="14"/>
-      <c r="CG3" s="14"/>
-      <c r="CH3" s="14"/>
-      <c r="CI3" s="14"/>
-      <c r="CJ3" s="14"/>
-      <c r="CK3" s="14"/>
-      <c r="CL3" s="14"/>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14"/>
-      <c r="CO3" s="14"/>
-      <c r="CP3" s="14"/>
-      <c r="CQ3" s="14"/>
-      <c r="CR3" s="14"/>
-      <c r="CS3" s="14"/>
-      <c r="CT3" s="14"/>
-      <c r="CU3" s="14"/>
-      <c r="CV3" s="14"/>
-      <c r="CW3" s="14"/>
-      <c r="CX3" s="14"/>
-      <c r="CY3" s="14"/>
-      <c r="CZ3" s="14"/>
-      <c r="DA3" s="14"/>
-      <c r="DB3" s="14"/>
-      <c r="DC3" s="14"/>
-      <c r="DD3" s="14"/>
-      <c r="DE3" s="14"/>
-      <c r="DF3" s="14"/>
-      <c r="DG3" s="14"/>
-      <c r="DH3" s="14"/>
-      <c r="DI3" s="14"/>
-      <c r="DJ3" s="14"/>
-      <c r="DK3" s="14"/>
-      <c r="DL3" s="14"/>
-      <c r="DM3" s="14"/>
-      <c r="DN3" s="14"/>
-      <c r="DO3" s="14"/>
-      <c r="DP3" s="14"/>
-      <c r="DQ3" s="14"/>
-      <c r="DR3" s="14"/>
-      <c r="DS3" s="14"/>
-      <c r="DT3" s="14"/>
-      <c r="DU3" s="14"/>
-      <c r="DV3" s="14"/>
-      <c r="DW3" s="14"/>
-      <c r="DX3" s="14"/>
-      <c r="DY3" s="14"/>
-      <c r="DZ3" s="14"/>
-      <c r="EA3" s="14"/>
-      <c r="EB3" s="14"/>
-      <c r="EC3" s="14"/>
-      <c r="ED3" s="14"/>
-      <c r="EE3" s="14"/>
-      <c r="EF3" s="14"/>
-      <c r="EG3" s="14"/>
-      <c r="EH3" s="14"/>
-      <c r="EI3" s="14"/>
-      <c r="EJ3" s="14"/>
-      <c r="EK3" s="14"/>
-      <c r="EL3" s="14"/>
-      <c r="EM3" s="14"/>
-      <c r="EN3" s="14"/>
-      <c r="EO3" s="14"/>
-      <c r="EP3" s="14"/>
-      <c r="EQ3" s="14"/>
-      <c r="ER3" s="14"/>
-      <c r="ES3" s="14"/>
-      <c r="ET3" s="14"/>
-      <c r="EU3" s="14"/>
-      <c r="EV3" s="14"/>
-      <c r="EW3" s="14"/>
-      <c r="EX3" s="14"/>
-      <c r="EY3" s="14"/>
-      <c r="EZ3" s="14"/>
-      <c r="FA3" s="14"/>
-      <c r="FB3" s="14"/>
-      <c r="FC3" s="14"/>
-      <c r="FD3" s="14"/>
-      <c r="FE3" s="14"/>
-      <c r="FF3" s="14"/>
-      <c r="FG3" s="14"/>
-      <c r="FH3" s="14"/>
-      <c r="FI3" s="14"/>
-      <c r="FJ3" s="14"/>
-      <c r="FK3" s="14"/>
-      <c r="FL3" s="14"/>
-      <c r="FM3" s="14"/>
-      <c r="FN3" s="14"/>
-      <c r="FO3" s="14"/>
-      <c r="FP3" s="14"/>
-      <c r="FQ3" s="14"/>
-      <c r="FR3" s="14"/>
-      <c r="FS3" s="14"/>
-      <c r="FT3" s="14"/>
-      <c r="FU3" s="14"/>
-    </row>
-    <row r="4" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D721FA-BF20-437B-82EA-70E9376DA5F5}">
-  <dimension ref="A1:FU4"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="4.125" style="36" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="35" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="36" customWidth="1"/>
-    <col min="34" max="37" width="4" style="36" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-    </row>
-    <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="67"/>
-    </row>
-    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="14"/>
-      <c r="BM3" s="14"/>
-      <c r="BN3" s="14"/>
-      <c r="BO3" s="14"/>
-      <c r="BP3" s="14"/>
-      <c r="BQ3" s="14"/>
-      <c r="BR3" s="14"/>
-      <c r="BS3" s="14"/>
-      <c r="BT3" s="14"/>
-      <c r="BU3" s="14"/>
-      <c r="BV3" s="14"/>
-      <c r="BW3" s="14"/>
-      <c r="BX3" s="14"/>
-      <c r="BY3" s="14"/>
-      <c r="BZ3" s="14"/>
-      <c r="CA3" s="14"/>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="14"/>
-      <c r="CD3" s="14"/>
-      <c r="CE3" s="14"/>
-      <c r="CF3" s="14"/>
-      <c r="CG3" s="14"/>
-      <c r="CH3" s="14"/>
-      <c r="CI3" s="14"/>
-      <c r="CJ3" s="14"/>
-      <c r="CK3" s="14"/>
-      <c r="CL3" s="14"/>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14"/>
-      <c r="CO3" s="14"/>
-      <c r="CP3" s="14"/>
-      <c r="CQ3" s="14"/>
-      <c r="CR3" s="14"/>
-      <c r="CS3" s="14"/>
-      <c r="CT3" s="14"/>
-      <c r="CU3" s="14"/>
-      <c r="CV3" s="14"/>
-      <c r="CW3" s="14"/>
-      <c r="CX3" s="14"/>
-      <c r="CY3" s="14"/>
-      <c r="CZ3" s="14"/>
-      <c r="DA3" s="14"/>
-      <c r="DB3" s="14"/>
-      <c r="DC3" s="14"/>
-      <c r="DD3" s="14"/>
-      <c r="DE3" s="14"/>
-      <c r="DF3" s="14"/>
-      <c r="DG3" s="14"/>
-      <c r="DH3" s="14"/>
-      <c r="DI3" s="14"/>
-      <c r="DJ3" s="14"/>
-      <c r="DK3" s="14"/>
-      <c r="DL3" s="14"/>
-      <c r="DM3" s="14"/>
-      <c r="DN3" s="14"/>
-      <c r="DO3" s="14"/>
-      <c r="DP3" s="14"/>
-      <c r="DQ3" s="14"/>
-      <c r="DR3" s="14"/>
-      <c r="DS3" s="14"/>
-      <c r="DT3" s="14"/>
-      <c r="DU3" s="14"/>
-      <c r="DV3" s="14"/>
-      <c r="DW3" s="14"/>
-      <c r="DX3" s="14"/>
-      <c r="DY3" s="14"/>
-      <c r="DZ3" s="14"/>
-      <c r="EA3" s="14"/>
-      <c r="EB3" s="14"/>
-      <c r="EC3" s="14"/>
-      <c r="ED3" s="14"/>
-      <c r="EE3" s="14"/>
-      <c r="EF3" s="14"/>
-      <c r="EG3" s="14"/>
-      <c r="EH3" s="14"/>
-      <c r="EI3" s="14"/>
-      <c r="EJ3" s="14"/>
-      <c r="EK3" s="14"/>
-      <c r="EL3" s="14"/>
-      <c r="EM3" s="14"/>
-      <c r="EN3" s="14"/>
-      <c r="EO3" s="14"/>
-      <c r="EP3" s="14"/>
-      <c r="EQ3" s="14"/>
-      <c r="ER3" s="14"/>
-      <c r="ES3" s="14"/>
-      <c r="ET3" s="14"/>
-      <c r="EU3" s="14"/>
-      <c r="EV3" s="14"/>
-      <c r="EW3" s="14"/>
-      <c r="EX3" s="14"/>
-      <c r="EY3" s="14"/>
-      <c r="EZ3" s="14"/>
-      <c r="FA3" s="14"/>
-      <c r="FB3" s="14"/>
-      <c r="FC3" s="14"/>
-      <c r="FD3" s="14"/>
-      <c r="FE3" s="14"/>
-      <c r="FF3" s="14"/>
-      <c r="FG3" s="14"/>
-      <c r="FH3" s="14"/>
-      <c r="FI3" s="14"/>
-      <c r="FJ3" s="14"/>
-      <c r="FK3" s="14"/>
-      <c r="FL3" s="14"/>
-      <c r="FM3" s="14"/>
-      <c r="FN3" s="14"/>
-      <c r="FO3" s="14"/>
-      <c r="FP3" s="14"/>
-      <c r="FQ3" s="14"/>
-      <c r="FR3" s="14"/>
-      <c r="FS3" s="14"/>
-      <c r="FT3" s="14"/>
-      <c r="FU3" s="14"/>
-    </row>
-    <row r="4" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215C371C-6234-4370-BCFF-1814E199B13A}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99553CC-A55A-4B73-8EE6-040A3D99201E}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -24199,7 +23806,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -24224,7 +23831,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -24938,9 +24545,7 @@
     </row>
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
       <c r="A20" s="16"/>
-      <c r="B20" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -25608,7 +25213,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -25643,7 +25248,9 @@
       <c r="AG39" s="18"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="16"/>
+      <c r="A40" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -25678,7 +25285,9 @@
       <c r="AG40" s="18"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="16"/>
+      <c r="A41" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -25713,7 +25322,9 @@
       <c r="AG41" s="18"/>
     </row>
     <row r="42" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A42" s="27"/>
+      <c r="A42" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -25770,12 +25381,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E99B9A-23E3-4265-B001-AF16769EA07C}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -25877,7 +25488,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -25902,7 +25513,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -27284,7 +26895,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -27319,10 +26930,10 @@
       <c r="AG39" s="18"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="13" t="s">
-        <v>40</v>
+      <c r="A40" s="16" t="s">
+        <v>46</v>
       </c>
+      <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -27356,9 +26967,7 @@
       <c r="AG40" s="18"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="A41" s="16"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -27429,15 +27038,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="G2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -27450,12 +27059,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99553CC-A55A-4B73-8EE6-040A3D99201E}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE53D48-DE14-4DF4-A7CC-3E586596A741}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -27557,7 +27166,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -27582,7 +27191,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -28964,7 +28573,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -29000,7 +28609,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -29036,9 +28645,7 @@
       <c r="AG40" s="18"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="A41" s="16"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -29073,9 +28680,7 @@
       <c r="AG41" s="18"/>
     </row>
     <row r="42" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A42" s="27" t="s">
-        <v>49</v>
-      </c>
+      <c r="A42" s="27"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -29132,8 +28737,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E99B9A-23E3-4265-B001-AF16769EA07C}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA909198-E8B6-4564-87E2-F827079EF3A2}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -29239,7 +28844,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -29264,7 +28869,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -30646,7 +30251,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -30682,7 +30287,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -30810,12 +30415,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE53D48-DE14-4DF4-A7CC-3E586596A741}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C6BAD8-DAF5-4336-9B2C-F2145B226527}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -30917,7 +30522,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -30942,7 +30547,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -32324,7 +31929,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -32360,7 +31965,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -32396,7 +32001,9 @@
       <c r="AG40" s="18"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="16"/>
+      <c r="A41" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -32488,12 +32095,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA909198-E8B6-4564-87E2-F827079EF3A2}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEB793-EA0C-47FA-80E3-5B36170261EC}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -32595,7 +32202,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -32620,7 +32227,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -34002,7 +33609,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -34038,7 +33645,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -34074,7 +33681,9 @@
       <c r="AG40" s="18"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="16"/>
+      <c r="A41" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -34164,1684 +33773,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C6BAD8-DAF5-4336-9B2C-F2145B226527}">
-  <dimension ref="A1:FU42"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="4" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-    </row>
-    <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="63"/>
-    </row>
-    <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
-      <c r="BT3" s="5"/>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
-      <c r="BW3" s="5"/>
-      <c r="BX3" s="5"/>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="5"/>
-      <c r="CA3" s="5"/>
-      <c r="CB3" s="5"/>
-      <c r="CC3" s="5"/>
-      <c r="CD3" s="5"/>
-      <c r="CE3" s="5"/>
-      <c r="CF3" s="5"/>
-      <c r="CG3" s="5"/>
-      <c r="CH3" s="5"/>
-      <c r="CI3" s="5"/>
-      <c r="CJ3" s="5"/>
-      <c r="CK3" s="5"/>
-      <c r="CL3" s="5"/>
-      <c r="CM3" s="5"/>
-      <c r="CN3" s="5"/>
-      <c r="CO3" s="5"/>
-      <c r="CP3" s="5"/>
-      <c r="CQ3" s="5"/>
-      <c r="CR3" s="5"/>
-      <c r="CS3" s="5"/>
-      <c r="CT3" s="5"/>
-      <c r="CU3" s="5"/>
-      <c r="CV3" s="5"/>
-      <c r="CW3" s="5"/>
-      <c r="CX3" s="5"/>
-      <c r="CY3" s="5"/>
-      <c r="CZ3" s="5"/>
-      <c r="DA3" s="5"/>
-      <c r="DB3" s="5"/>
-      <c r="DC3" s="5"/>
-      <c r="DD3" s="5"/>
-      <c r="DE3" s="5"/>
-      <c r="DF3" s="5"/>
-      <c r="DG3" s="5"/>
-      <c r="DH3" s="5"/>
-      <c r="DI3" s="5"/>
-      <c r="DJ3" s="5"/>
-      <c r="DK3" s="5"/>
-      <c r="DL3" s="5"/>
-      <c r="DM3" s="5"/>
-      <c r="DN3" s="5"/>
-      <c r="DO3" s="5"/>
-      <c r="DP3" s="5"/>
-      <c r="DQ3" s="5"/>
-      <c r="DR3" s="5"/>
-      <c r="DS3" s="5"/>
-      <c r="DT3" s="5"/>
-      <c r="DU3" s="5"/>
-      <c r="DV3" s="5"/>
-      <c r="DW3" s="5"/>
-      <c r="DX3" s="5"/>
-      <c r="DY3" s="5"/>
-      <c r="DZ3" s="5"/>
-      <c r="EA3" s="5"/>
-      <c r="EB3" s="5"/>
-      <c r="EC3" s="5"/>
-      <c r="ED3" s="5"/>
-      <c r="EE3" s="5"/>
-      <c r="EF3" s="5"/>
-      <c r="EG3" s="5"/>
-      <c r="EH3" s="5"/>
-      <c r="EI3" s="5"/>
-      <c r="EJ3" s="5"/>
-      <c r="EK3" s="5"/>
-      <c r="EL3" s="5"/>
-      <c r="EM3" s="5"/>
-      <c r="EN3" s="5"/>
-      <c r="EO3" s="5"/>
-      <c r="EP3" s="5"/>
-      <c r="EQ3" s="5"/>
-      <c r="ER3" s="5"/>
-      <c r="ES3" s="5"/>
-      <c r="ET3" s="5"/>
-      <c r="EU3" s="5"/>
-      <c r="EV3" s="5"/>
-      <c r="EW3" s="5"/>
-      <c r="EX3" s="5"/>
-      <c r="EY3" s="5"/>
-      <c r="EZ3" s="5"/>
-      <c r="FA3" s="5"/>
-      <c r="FB3" s="5"/>
-      <c r="FC3" s="5"/>
-      <c r="FD3" s="5"/>
-      <c r="FE3" s="5"/>
-      <c r="FF3" s="5"/>
-      <c r="FG3" s="5"/>
-      <c r="FH3" s="5"/>
-      <c r="FI3" s="5"/>
-      <c r="FJ3" s="5"/>
-      <c r="FK3" s="5"/>
-      <c r="FL3" s="5"/>
-      <c r="FM3" s="5"/>
-      <c r="FN3" s="5"/>
-      <c r="FO3" s="5"/>
-      <c r="FP3" s="5"/>
-      <c r="FQ3" s="5"/>
-      <c r="FR3" s="5"/>
-      <c r="FS3" s="5"/>
-      <c r="FT3" s="5"/>
-      <c r="FU3" s="5"/>
-    </row>
-    <row r="4" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="34"/>
-    </row>
-    <row r="5" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="18"/>
-    </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="18"/>
-    </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="18"/>
-    </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="18"/>
-    </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="18"/>
-    </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="18"/>
-    </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="18"/>
-    </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="18"/>
-    </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="18"/>
-    </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="18"/>
-    </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="18"/>
-    </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="18"/>
-    </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="18"/>
-    </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="18"/>
-    </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="18"/>
-    </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="18"/>
-    </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="18"/>
-    </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="18"/>
-    </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="18"/>
-    </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="18"/>
-    </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="18"/>
-    </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="18"/>
-    </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="18"/>
-    </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="18"/>
-    </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="18"/>
-    </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="18"/>
-    </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="18"/>
-    </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="18"/>
-    </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="18"/>
-    </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="18"/>
-    </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="18"/>
-    </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="18"/>
-    </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="18"/>
-    </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="30"/>
-    </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A39" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="18"/>
-    </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="18"/>
-    </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="18"/>
-    </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>